--- a/data/hotels_by_city/Houston/Houston_shard_103.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_103.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223180-Reviews-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Inn-Hwy-290NW.h1154020.Hotel-Information?chkin=7%2F8%2F2018&amp;chkout=7%2F9%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530299677659&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=8946f0ad-bc11-4f90-b57e-5ea97197ad3c&amp;mctc=9&amp;exp_dp=67.15&amp;exp_ts=1530299678145&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1062 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r488808810-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223180</t>
+  </si>
+  <si>
+    <t>488808810</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Unimpressed</t>
+  </si>
+  <si>
+    <t>My family and I drove 5 hours to a attend three graduations schedule for this weekend in Katy. Upon arrival check in with smooth went to our room unpacked turned on the AC unit noticing that the room was hot after the AC unit was on for about an hour we realized that the room was not cooling down. Went to the front desk and spoke with the night gentleman and he stated that we always have problems with the A/c in these rooms I can switch you to another upon which he did. The first morning for the continental breakfast everything was smooth food was great standard however the muffins were hard the bread was stale and the eggs were a little bit on the cool side. The breakfast food area or Cafe it's across from front desk which is normal however the front desk agent stared as we ate our breakfast it was very uncomfortable. The second night staying there went quite smoothly second morning for breakfast however the attendant was late so we went down roughly about 7:30 almost 8 and she was just getting the food out while the front desk agent and never mentioned to us that there was a delay on the breakfast she just also stood there and stared another day at us in the breakfast area. Food was lackluster cold as well as stale. On our last day visiting the hotel my...My family and I drove 5 hours to a attend three graduations schedule for this weekend in Katy. Upon arrival check in with smooth went to our room unpacked turned on the AC unit noticing that the room was hot after the AC unit was on for about an hour we realized that the room was not cooling down. Went to the front desk and spoke with the night gentleman and he stated that we always have problems with the A/c in these rooms I can switch you to another upon which he did. The first morning for the continental breakfast everything was smooth food was great standard however the muffins were hard the bread was stale and the eggs were a little bit on the cool side. The breakfast food area or Cafe it's across from front desk which is normal however the front desk agent stared as we ate our breakfast it was very uncomfortable. The second night staying there went quite smoothly second morning for breakfast however the attendant was late so we went down roughly about 7:30 almost 8 and she was just getting the food out while the front desk agent and never mentioned to us that there was a delay on the breakfast she just also stood there and stared another day at us in the breakfast area. Food was lackluster cold as well as stale. On our last day visiting the hotel my son just asked if he can go and swim I agree however swimming was not as fun as he thought it would be after  finding that they two dead birds and one dead cockroach in the pool. Overall the cleanliness of the hotel room and the housekeeping staff needs to be recommended they went above and beyond however when it comes down to the breakfast the pool area as well as the female front desk agent that needs to be addressed it did not make the visit as inviting nor as comfortable as it should have been.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>My family and I drove 5 hours to a attend three graduations schedule for this weekend in Katy. Upon arrival check in with smooth went to our room unpacked turned on the AC unit noticing that the room was hot after the AC unit was on for about an hour we realized that the room was not cooling down. Went to the front desk and spoke with the night gentleman and he stated that we always have problems with the A/c in these rooms I can switch you to another upon which he did. The first morning for the continental breakfast everything was smooth food was great standard however the muffins were hard the bread was stale and the eggs were a little bit on the cool side. The breakfast food area or Cafe it's across from front desk which is normal however the front desk agent stared as we ate our breakfast it was very uncomfortable. The second night staying there went quite smoothly second morning for breakfast however the attendant was late so we went down roughly about 7:30 almost 8 and she was just getting the food out while the front desk agent and never mentioned to us that there was a delay on the breakfast she just also stood there and stared another day at us in the breakfast area. Food was lackluster cold as well as stale. On our last day visiting the hotel my...My family and I drove 5 hours to a attend three graduations schedule for this weekend in Katy. Upon arrival check in with smooth went to our room unpacked turned on the AC unit noticing that the room was hot after the AC unit was on for about an hour we realized that the room was not cooling down. Went to the front desk and spoke with the night gentleman and he stated that we always have problems with the A/c in these rooms I can switch you to another upon which he did. The first morning for the continental breakfast everything was smooth food was great standard however the muffins were hard the bread was stale and the eggs were a little bit on the cool side. The breakfast food area or Cafe it's across from front desk which is normal however the front desk agent stared as we ate our breakfast it was very uncomfortable. The second night staying there went quite smoothly second morning for breakfast however the attendant was late so we went down roughly about 7:30 almost 8 and she was just getting the food out while the front desk agent and never mentioned to us that there was a delay on the breakfast she just also stood there and stared another day at us in the breakfast area. Food was lackluster cold as well as stale. On our last day visiting the hotel my son just asked if he can go and swim I agree however swimming was not as fun as he thought it would be after  finding that they two dead birds and one dead cockroach in the pool. Overall the cleanliness of the hotel room and the housekeeping staff needs to be recommended they went above and beyond however when it comes down to the breakfast the pool area as well as the female front desk agent that needs to be addressed it did not make the visit as inviting nor as comfortable as it should have been.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r475321458-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475321458</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>Just a overnight stay for business, nice upgrade to the king suite.  Breakfast typical, but hot items were empty and didn't seem to get refilled ( while I was there. ). I'd stay there again. Luby's and Mambo Seafood restaurant are next door. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Just a overnight stay for business, nice upgrade to the king suite.  Breakfast typical, but hot items were empty and didn't seem to get refilled ( while I was there. ). I'd stay there again. Luby's and Mambo Seafood restaurant are next door. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r456536303-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456536303</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Tvery nice</t>
+  </si>
+  <si>
+    <t>This was just an overnight stay for a work trip.  The room was very spacious, clean and very comfortable. The staff ASM commode ting and friendly. Their hot breakfast was plentiful, varied and good. Mdefinitely recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>This was just an overnight stay for a work trip.  The room was very spacious, clean and very comfortable. The staff ASM commode ting and friendly. Their hot breakfast was plentiful, varied and good. Mdefinitely recommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r398444727-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398444727</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>GREAT!!</t>
+  </si>
+  <si>
+    <t>First off Robert at front desk is great! So kind and helpful. I love the Hotel. Very clean and comfortable. I will be staying here more often  Thank you Comfort Inn! So many restaurants to choose from. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>First off Robert at front desk is great! So kind and helpful. I love the Hotel. Very clean and comfortable. I will be staying here more often  Thank you Comfort Inn! So many restaurants to choose from. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r398251621-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398251621</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Budget Friendly/Nice hospitality</t>
+  </si>
+  <si>
+    <t>My friends and i had a 15 hour layover in Houston when coming back home from Mexico in March. Considering it was 5 of us and we didnt want to sleep in the airport. Our airline (American) comped us for a nice lil suite at this comfort in. They were very accommodating considering we basically checked in close to midnight. The room was very neat and clean (especially compared to other hotels like this) and the staff showed very nice hospitality and even helped pick out a nice late night restaurant.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r398203805-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398203805</t>
+  </si>
+  <si>
+    <t>Wow Great value for price paid</t>
+  </si>
+  <si>
+    <t>Wow nice Hotel  and a value for price paid.Was greeted with a warm welcome from the front desk.I was checked in fast, and the room was big and clean.In the morning I was treated to a tasty breakfast.What more can you ask for for under 100.00MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Wow nice Hotel  and a value for price paid.Was greeted with a warm welcome from the front desk.I was checked in fast, and the room was big and clean.In the morning I was treated to a tasty breakfast.What more can you ask for for under 100.00More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r374687229-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374687229</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Welcomed</t>
+  </si>
+  <si>
+    <t>My experience here has been very comforting. My family andI lost everything in the flood and are here at the 290 West Tidwell location in Houston and from begining Robert has made us feel as if we are at home. The staff u have here is the best experience we have ever had in any Hotel. Please let Robert know that dispite what we are going thru ha has stayed on top of our every need making us feel warm and welcome . He seems to thrive on perfection in customer service, no matter whar. His interactionfrom what I have seen since the moment he came is Superb Kudos to Robert Room 526 The ShermansMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>My experience here has been very comforting. My family andI lost everything in the flood and are here at the 290 West Tidwell location in Houston and from begining Robert has made us feel as if we are at home. The staff u have here is the best experience we have ever had in any Hotel. Please let Robert know that dispite what we are going thru ha has stayed on top of our every need making us feel warm and welcome . He seems to thrive on perfection in customer service, no matter whar. His interactionfrom what I have seen since the moment he came is Superb Kudos to Robert Room 526 The ShermansMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r342445951-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342445951</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>outstanding Service Robert</t>
+  </si>
+  <si>
+    <t>Robert is an awesome front desk agent.  He was extremely helpful during my check in at this hotel.  He had a warm welcoming smile when I entered the door.  In my room the lamp was not working and the TV had issues.  I reported this to Robert and he immediately took care of the issue. I will continue to book and stay at this location.  Thank you Robert.  We will see you guys soon.Sandra L.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Robert is an awesome front desk agent.  He was extremely helpful during my check in at this hotel.  He had a warm welcoming smile when I entered the door.  In my room the lamp was not working and the TV had issues.  I reported this to Robert and he immediately took care of the issue. I will continue to book and stay at this location.  Thank you Robert.  We will see you guys soon.Sandra L.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r341754701-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341754701</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Integrity is not found at this property</t>
+  </si>
+  <si>
+    <t>My wife recently went to visit here brother who was admitted to a medical facility near this property.  She stayed there one night.  The rate was reasonable ($80/per night).  She arrived late from the hospital, but was still able to find a well lit parking space.  The next morning when she went to her car she found that it had been broken into.  The driver's side lock had been knocked out and the passenger side lock was damaged.  The only thing stolen was a bottle of water.
+She reported the incident to the front desk and was told that someone would be getting in touch with her.  After a few days of not hearing from anyone, she called the motel and was again informed that she would be contacted.  She did receive an e mail from the motels general manager.  
+He stated, "  I can imagine ​your frustration regarding this matter. I wanted to reach out to you personally to apologize. ​It is with regret I inform you that unfortunately there is nothing we can do monetarily. We are not responsible for any damage cause to vehicles in our parking lot. Despite our security cameras and regular police patrols, these incidences are beyond our control. I can and have discounted 25 percent off of your stay as a small token of our gratitude. "
+The bill to repair our vehicle was over $500.  I asked the general manager, if he...My wife recently went to visit here brother who was admitted to a medical facility near this property.  She stayed there one night.  The rate was reasonable ($80/per night).  She arrived late from the hospital, but was still able to find a well lit parking space.  The next morning when she went to her car she found that it had been broken into.  The driver's side lock had been knocked out and the passenger side lock was damaged.  The only thing stolen was a bottle of water.She reported the incident to the front desk and was told that someone would be getting in touch with her.  After a few days of not hearing from anyone, she called the motel and was again informed that she would be contacted.  She did receive an e mail from the motels general manager.  He stated, "  I can imagine ​your frustration regarding this matter. I wanted to reach out to you personally to apologize. ​It is with regret I inform you that unfortunately there is nothing we can do monetarily. We are not responsible for any damage cause to vehicles in our parking lot. Despite our security cameras and regular police patrols, these incidences are beyond our control. I can and have discounted 25 percent off of your stay as a small token of our gratitude. "The bill to repair our vehicle was over $500.  I asked the general manager, if he could  at least comp the room for the night.  He said that he could not do that.  Basically, $20 was their best offer.I would not suggest this property for women staying alone, for those who may have to leave property inside their vehicle, or for those who may have a vehicle that looks like it is deemed worthy to break in to.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>ComfortInn290, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2016</t>
+  </si>
+  <si>
+    <t>My wife recently went to visit here brother who was admitted to a medical facility near this property.  She stayed there one night.  The rate was reasonable ($80/per night).  She arrived late from the hospital, but was still able to find a well lit parking space.  The next morning when she went to her car she found that it had been broken into.  The driver's side lock had been knocked out and the passenger side lock was damaged.  The only thing stolen was a bottle of water.
+She reported the incident to the front desk and was told that someone would be getting in touch with her.  After a few days of not hearing from anyone, she called the motel and was again informed that she would be contacted.  She did receive an e mail from the motels general manager.  
+He stated, "  I can imagine ​your frustration regarding this matter. I wanted to reach out to you personally to apologize. ​It is with regret I inform you that unfortunately there is nothing we can do monetarily. We are not responsible for any damage cause to vehicles in our parking lot. Despite our security cameras and regular police patrols, these incidences are beyond our control. I can and have discounted 25 percent off of your stay as a small token of our gratitude. "
+The bill to repair our vehicle was over $500.  I asked the general manager, if he...My wife recently went to visit here brother who was admitted to a medical facility near this property.  She stayed there one night.  The rate was reasonable ($80/per night).  She arrived late from the hospital, but was still able to find a well lit parking space.  The next morning when she went to her car she found that it had been broken into.  The driver's side lock had been knocked out and the passenger side lock was damaged.  The only thing stolen was a bottle of water.She reported the incident to the front desk and was told that someone would be getting in touch with her.  After a few days of not hearing from anyone, she called the motel and was again informed that she would be contacted.  She did receive an e mail from the motels general manager.  He stated, "  I can imagine ​your frustration regarding this matter. I wanted to reach out to you personally to apologize. ​It is with regret I inform you that unfortunately there is nothing we can do monetarily. We are not responsible for any damage cause to vehicles in our parking lot. Despite our security cameras and regular police patrols, these incidences are beyond our control. I can and have discounted 25 percent off of your stay as a small token of our gratitude. "The bill to repair our vehicle was over $500.  I asked the general manager, if he could  at least comp the room for the night.  He said that he could not do that.  Basically, $20 was their best offer.I would not suggest this property for women staying alone, for those who may have to leave property inside their vehicle, or for those who may have a vehicle that looks like it is deemed worthy to break in to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r324896512-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324896512</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Service above board</t>
+  </si>
+  <si>
+    <t>We stayed in Houston, Texas for 17 nights from Oct, 09 at this hotel. Rooms were not large enough but service was exceptional. Special thanks to Daniel Ali, the manager who tried his level best in his capacity to make our stay wonderful. Would recommend to all to take this hotel whenever in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>We stayed in Houston, Texas for 17 nights from Oct, 09 at this hotel. Rooms were not large enough but service was exceptional. Special thanks to Daniel Ali, the manager who tried his level best in his capacity to make our stay wonderful. Would recommend to all to take this hotel whenever in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r322507126-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322507126</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Comfort Inn Hwy.290/NW</t>
+  </si>
+  <si>
+    <t>I was a guest here for 4 nights last week.In spite of the fact that the hotel was full with convention people the staff did a great job keeping everyone happy.Robert was awesome! My remote control was not working when I got to my room.Robert was slammed with checking people in, however, he told me he would take care of it and when I returned from dinner he had me fixed up.I stay at this hotel every business trip I make to Houston and Robert is one of the huge reasons I stay at this particular hotel.Because they were full this time I had to put a couple of my sales managers down the street and they both told me that even though the hotel they stayed in was newer then the Comfort Inn it couldn't compare to Robert and the staff at Comfort Inn.Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>I was a guest here for 4 nights last week.In spite of the fact that the hotel was full with convention people the staff did a great job keeping everyone happy.Robert was awesome! My remote control was not working when I got to my room.Robert was slammed with checking people in, however, he told me he would take care of it and when I returned from dinner he had me fixed up.I stay at this hotel every business trip I make to Houston and Robert is one of the huge reasons I stay at this particular hotel.Because they were full this time I had to put a couple of my sales managers down the street and they both told me that even though the hotel they stayed in was newer then the Comfort Inn it couldn't compare to Robert and the staff at Comfort Inn.Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r321249066-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321249066</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Excellent service and Robert was great</t>
+  </si>
+  <si>
+    <t>The service was excellent!! Robert, the way you say "No problems" is simply great :) Thanks for the great service and assistance. It was pleasure to be here.Hope to visit again in the future.Will suggest others about Comfort inn MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>The service was excellent!! Robert, the way you say "No problems" is simply great :) Thanks for the great service and assistance. It was pleasure to be here.Hope to visit again in the future.Will suggest others about Comfort inn More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r301554535-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301554535</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>A great place to stay for business or pleasure</t>
+  </si>
+  <si>
+    <t>I stayed here for three weeks on business and loved it.  The hotel is well maintained with new furnishings and fixtures.  The staff is friendly and helpful.  The grounds are fenced and secure.  The location on 290 is convenient to downtown and outlying areas; allowing for Houston's famous traffic.  The site is surrounded by food choices of all types; with a wide selection within walking distance.  A Walmart, a Target, an Office Depot and FedEx are all within sight of the building.  Parking is good in the rear, and the building has two very, very fast elevators so there's never a wait.  Good free, coffee at any hour, and a very good hot breakfast with omelets and waffles.   Fresh cookies every evening, and free, cold bottled water anytime at the desk.  Coke machines in the hallways actually worked; at only $1.50 per 20 oz drink.  Plenty of free ice, also.  A very nice hotel at a reasonable price.  Smoking rooms are available.  HWY 290 out front is under long-term construction, but don't be put off by it.  Highway construction is everywhere in Houston, and once you learn the exits near the hotel, it's as convenient as anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for three weeks on business and loved it.  The hotel is well maintained with new furnishings and fixtures.  The staff is friendly and helpful.  The grounds are fenced and secure.  The location on 290 is convenient to downtown and outlying areas; allowing for Houston's famous traffic.  The site is surrounded by food choices of all types; with a wide selection within walking distance.  A Walmart, a Target, an Office Depot and FedEx are all within sight of the building.  Parking is good in the rear, and the building has two very, very fast elevators so there's never a wait.  Good free, coffee at any hour, and a very good hot breakfast with omelets and waffles.   Fresh cookies every evening, and free, cold bottled water anytime at the desk.  Coke machines in the hallways actually worked; at only $1.50 per 20 oz drink.  Plenty of free ice, also.  A very nice hotel at a reasonable price.  Smoking rooms are available.  HWY 290 out front is under long-term construction, but don't be put off by it.  Highway construction is everywhere in Houston, and once you learn the exits near the hotel, it's as convenient as anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r299844430-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299844430</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Great Maintenance Man</t>
+  </si>
+  <si>
+    <t>This is a good property and I would have rated them a 4 except for Wayne the maintenance technician. Rooms were clean, breakfast average, front desk accommodating. But, on my first morning of a two day stay I got on the elevator with Wayne and casually mentioned to him the my floor lamp didn't work, I hadn't nor did I report it except the mention on the elevator. When I returned later in the night I found the lamp replaced and on for me. I find a work ethic like this exceptional, therefore the 5 rating. Great job Wayne, thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a good property and I would have rated them a 4 except for Wayne the maintenance technician. Rooms were clean, breakfast average, front desk accommodating. But, on my first morning of a two day stay I got on the elevator with Wayne and casually mentioned to him the my floor lamp didn't work, I hadn't nor did I report it except the mention on the elevator. When I returned later in the night I found the lamp replaced and on for me. I find a work ethic like this exceptional, therefore the 5 rating. Great job Wayne, thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r298847639-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298847639</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Not a luxury place, but a darn nice hotel in which to stay</t>
+  </si>
+  <si>
+    <t>Well, when I got off the interstate it was night and dark, the entrance to the hotel property is in back of a little strip mall, and I thought it might be a little sketchy. But the hotel was clean, the staff friendly, and the bed very sleepable--it that's a word.The next morning revealed that the neighborhood wasn't as "sketchy" as it had appeared to a tired traveler the night before. Walked to a convenience store, took a stroll through an apartment complex. Breakfast was good, pretty standard for this type of hotel. Easy access for my nephew to come and get me so we could explore downtown, catch a ball game, etc. The shower pressure could have been a little stronger. And it would have been nice to have an ice machine other than on the 4th floor. The staff, with the exception of the breakfast hostess--who was a little bit of a pill, were friendly, happy to answer questions, and attentive to their jobs. Nice training.If you want luxury--your aren't staying here. But for a good, basic, overall good hotel, you should give this a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>ComfortInn290, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Well, when I got off the interstate it was night and dark, the entrance to the hotel property is in back of a little strip mall, and I thought it might be a little sketchy. But the hotel was clean, the staff friendly, and the bed very sleepable--it that's a word.The next morning revealed that the neighborhood wasn't as "sketchy" as it had appeared to a tired traveler the night before. Walked to a convenience store, took a stroll through an apartment complex. Breakfast was good, pretty standard for this type of hotel. Easy access for my nephew to come and get me so we could explore downtown, catch a ball game, etc. The shower pressure could have been a little stronger. And it would have been nice to have an ice machine other than on the 4th floor. The staff, with the exception of the breakfast hostess--who was a little bit of a pill, were friendly, happy to answer questions, and attentive to their jobs. Nice training.If you want luxury--your aren't staying here. But for a good, basic, overall good hotel, you should give this a try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r294220486-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294220486</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Friendly knowledgable staff and great rooms</t>
+  </si>
+  <si>
+    <t>My wife and I found ourselves in need of a hotel after a mechanical issue with our commercial truck. This Comfort Inn happened to be the closest hotel to the repair shop and we arrived without a reservation hoping against hope there would be a room available. Robert, the night desk clerk, made us feel welcome as soon as we walked in. He provided us with a extremely clean and well appointed room at a surprisingly reasonable rate. On overhearing that we had left the truck without our toothbrushes, Robert promply provided us with not only brushes and toothpaste but deodorant, shaving cream, a razor and bottled water. Further, Robert recommended several nearby restaurant's and mentioned a couple we might wish to avoid. When we had to check in a second time (repair shop didn't manage to fix the problem) Robert remembered us and had us back in the same room within minutes of walking through the door. This time he even gave us cookies! If you find yourself in Houston and in need of a reasonably priced hotel room do yourself a favour and give this Comfort Inn a try. If you do and happen to arrive in the evening, say hello to Robert and make sure to ask him for his restaurant recommendations and a cookie or two. You won't be disappointed. P.S. Enjoy the complementary breakfast. Lots of choices way beyond the standard toast and coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortInn290, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I found ourselves in need of a hotel after a mechanical issue with our commercial truck. This Comfort Inn happened to be the closest hotel to the repair shop and we arrived without a reservation hoping against hope there would be a room available. Robert, the night desk clerk, made us feel welcome as soon as we walked in. He provided us with a extremely clean and well appointed room at a surprisingly reasonable rate. On overhearing that we had left the truck without our toothbrushes, Robert promply provided us with not only brushes and toothpaste but deodorant, shaving cream, a razor and bottled water. Further, Robert recommended several nearby restaurant's and mentioned a couple we might wish to avoid. When we had to check in a second time (repair shop didn't manage to fix the problem) Robert remembered us and had us back in the same room within minutes of walking through the door. This time he even gave us cookies! If you find yourself in Houston and in need of a reasonably priced hotel room do yourself a favour and give this Comfort Inn a try. If you do and happen to arrive in the evening, say hello to Robert and make sure to ask him for his restaurant recommendations and a cookie or two. You won't be disappointed. P.S. Enjoy the complementary breakfast. Lots of choices way beyond the standard toast and coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r293531847-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293531847</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Bed</t>
+  </si>
+  <si>
+    <t>The front desk was very helpful Liz made sure i felt at home, if you want a comfortable bed this is a great place to stay, you will sleep so peacefully. The only thing I would suggest is to PLEASE UPGRADE your A/C UNITS!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk was very helpful Liz made sure i felt at home, if you want a comfortable bed this is a great place to stay, you will sleep so peacefully. The only thing I would suggest is to PLEASE UPGRADE your A/C UNITS!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r293497664-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293497664</t>
+  </si>
+  <si>
+    <t>Robert is Awesome!</t>
+  </si>
+  <si>
+    <t>A very nice, well maintained motel, with a Hotel like ambiance. I visit Houston often for business, but not often enough, in my opinion, to be recognized by staff. However, Robert never fails to greet me with a familiarity that is both, sincere and refreshing. A sense of home when away from it. MoreShow less</t>
+  </si>
+  <si>
+    <t>A very nice, well maintained motel, with a Hotel like ambiance. I visit Houston often for business, but not often enough, in my opinion, to be recognized by staff. However, Robert never fails to greet me with a familiarity that is both, sincere and refreshing. A sense of home when away from it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r293240445-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293240445</t>
+  </si>
+  <si>
+    <t>Nice stay!</t>
+  </si>
+  <si>
+    <t>This was my first time staying at this hotel. It was quiet on my floor, my room was in great shape, and I really enjoyed breakfast. I even read a book in the dining area after breakfast. It was really comfortable. The receptionist Liz that greeted me was so nice. Nice people and nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>This was my first time staying at this hotel. It was quiet on my floor, my room was in great shape, and I really enjoyed breakfast. I even read a book in the dining area after breakfast. It was really comfortable. The receptionist Liz that greeted me was so nice. Nice people and nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r292474143-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292474143</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Helpful Place</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting Houston. Very convenient location in northwest Houston right off 290. Staff was VERY helpful and accommodating. Breakfast, in addition to all the standard stuff, had nice choices on the hot bar with variety from day to day. MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting Houston. Very convenient location in northwest Houston right off 290. Staff was VERY helpful and accommodating. Breakfast, in addition to all the standard stuff, had nice choices on the hot bar with variety from day to day. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r288131430-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288131430</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>The elevator smelled like an ash tray. The 4th floor hallway was smelly as well. The first room assigned on the 4th floor had mold on the ceiling. The room felt damp, musty and not clean. We were afraid to walk on the carpet. The phone had crumbs and spills on it. It's an old hotel that has been poorly renovated. The loud window unit air conditioning had some kind of water cooling system and made a constant gurgling sound.  We thought about using the pool but it was green. The nice front desk operator, Robert, let me look at 2 other rooms on the 1st floor. I didn't want to stay but had already paid for the night.  The room on the 1st floor was somewhat better and I agreed to stay. He discounted my rate. The reviews on this hotel were 4/5 stars. Definitely not up to 4/5 stars in my book. Feeling misled.  I had booked 2 nights at this hotel for my daughter to do some testing nearby.  I cancelled the second night and moved hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>The elevator smelled like an ash tray. The 4th floor hallway was smelly as well. The first room assigned on the 4th floor had mold on the ceiling. The room felt damp, musty and not clean. We were afraid to walk on the carpet. The phone had crumbs and spills on it. It's an old hotel that has been poorly renovated. The loud window unit air conditioning had some kind of water cooling system and made a constant gurgling sound.  We thought about using the pool but it was green. The nice front desk operator, Robert, let me look at 2 other rooms on the 1st floor. I didn't want to stay but had already paid for the night.  The room on the 1st floor was somewhat better and I agreed to stay. He discounted my rate. The reviews on this hotel were 4/5 stars. Definitely not up to 4/5 stars in my book. Feeling misled.  I had booked 2 nights at this hotel for my daughter to do some testing nearby.  I cancelled the second night and moved hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r283112356-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283112356</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Awesome trip on my visit back home!</t>
+  </si>
+  <si>
+    <t>I am currently living in El Paso came to visit family in Houston my visit couldn't be anymore better!!! The staff was amazing! From the moment I checked in I was greeted with smiles Liz was very professional she wasn't in a rush to check me in was patient when I had trouble locating my cc she was kind to me an my daughters the whole staff was pleasant housekeeping did incredible job being a single mom I appreciated coming to a clean room. I can honestly say I cannot wait to come visit again I will continue to book at this hotel every time I come to Houston thank you for making my visit an amazing one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>I am currently living in El Paso came to visit family in Houston my visit couldn't be anymore better!!! The staff was amazing! From the moment I checked in I was greeted with smiles Liz was very professional she wasn't in a rush to check me in was patient when I had trouble locating my cc she was kind to me an my daughters the whole staff was pleasant housekeeping did incredible job being a single mom I appreciated coming to a clean room. I can honestly say I cannot wait to come visit again I will continue to book at this hotel every time I come to Houston thank you for making my visit an amazing one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r280918256-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280918256</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>June 13 to June 16, 2015</t>
+  </si>
+  <si>
+    <t>Your staff, Andrew, Marleth and Robert and the ladies in Housekeeping are always super-kind to me. I stay with you for 3-4 days each time I relocate in-and-out of Houston. I always receive a fair rate and you give me as many discounts as I can receive. You always help me to find what I need in the Houston area. I so appreciate each of you. Thank you again for making my time with you great and uplifting. When I have a free day, I will drop by and have coffee with you. !Y muchisimas gracias por la ayuda que me han dado!MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2015</t>
+  </si>
+  <si>
+    <t>Your staff, Andrew, Marleth and Robert and the ladies in Housekeeping are always super-kind to me. I stay with you for 3-4 days each time I relocate in-and-out of Houston. I always receive a fair rate and you give me as many discounts as I can receive. You always help me to find what I need in the Houston area. I so appreciate each of you. Thank you again for making my time with you great and uplifting. When I have a free day, I will drop by and have coffee with you. !Y muchisimas gracias por la ayuda que me han dado!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r278875234-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278875234</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>great service at the check in</t>
+  </si>
+  <si>
+    <t>I have been there many times and almost every time Robert checks me in, he does it in a very friendly and professional manner and remembers all of his guests.This is a very nice welcome that you don't see very often.He responds to every need or question you may have.He reflects what the rest of the hotel and staff will make you fell.I will go there every time when in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>I have been there many times and almost every time Robert checks me in, he does it in a very friendly and professional manner and remembers all of his guests.This is a very nice welcome that you don't see very often.He responds to every need or question you may have.He reflects what the rest of the hotel and staff will make you fell.I will go there every time when in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r275341990-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275341990</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Great experience.</t>
+  </si>
+  <si>
+    <t>Just wanted to say this hotel was awesome.. People are very nice.. Liz reyes was awesome.. Funny perfect attitude and always willing to help.. I would come back just because she made us feel so comfortable.. Thanks again liz... You made this hotel ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Just wanted to say this hotel was awesome.. People are very nice.. Liz reyes was awesome.. Funny perfect attitude and always willing to help.. I would come back just because she made us feel so comfortable.. Thanks again liz... You made this hotel ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r273686952-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273686952</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Clean and quiet...</t>
+  </si>
+  <si>
+    <t>Visited relatives in Houston and searched for a fairly economical hotel room.  Called and they gave me their best price, which was reasonable.  Parking lot was clean and well lit.  The room was clean and comfortable. They adjusted my bill down $30 per night due to also being a senior...I forgot to mention on checking in!  All in all I would not have a problem staying here again.  The staff was extremely courteous and friendly.Stayed here for a week....had a great visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded May 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2015</t>
+  </si>
+  <si>
+    <t>Visited relatives in Houston and searched for a fairly economical hotel room.  Called and they gave me their best price, which was reasonable.  Parking lot was clean and well lit.  The room was clean and comfortable. They adjusted my bill down $30 per night due to also being a senior...I forgot to mention on checking in!  All in all I would not have a problem staying here again.  The staff was extremely courteous and friendly.Stayed here for a week....had a great visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r273120054-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273120054</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Nice clean hotel in North Houston</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in may 2015. It was clean, the breakfast was good and the staff was very friendly and accommodating. The room was clean and comfortable and had everything that you might expect from a $100/night hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in may 2015. It was clean, the breakfast was good and the staff was very friendly and accommodating. The room was clean and comfortable and had everything that you might expect from a $100/night hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r264337968-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264337968</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>If you want great service!!!</t>
+  </si>
+  <si>
+    <t>This is a reasonably priced hotel, close to Oilfield Alley where many energy industry headquarters are located. Easy access to Hwy 290 East or West. Good place to eat (Mambo Seafood )next door. Robert is great to have behind the counter. After a couple of stays he greeted me by first name and is always very polite and professional. He always thanks me for choosing this hotel. The staff makes this place great!MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>This is a reasonably priced hotel, close to Oilfield Alley where many energy industry headquarters are located. Easy access to Hwy 290 East or West. Good place to eat (Mambo Seafood )next door. Robert is great to have behind the counter. After a couple of stays he greeted me by first name and is always very polite and professional. He always thanks me for choosing this hotel. The staff makes this place great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r262212672-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262212672</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Love this hotel!!</t>
+  </si>
+  <si>
+    <t>My stay was great! My family were very comfortable and we all felt at home. The hotel is clean and cozy. The front desk were great! Very nice folks. Elizabeth at night was really helpful and nice. I love her attitude and her smile! We need more front desk like these folks. Thank you Comfort inn for the southern hospitality! Definatly will stay at this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>My stay was great! My family were very comfortable and we all felt at home. The hotel is clean and cozy. The front desk were great! Very nice folks. Elizabeth at night was really helpful and nice. I love her attitude and her smile! We need more front desk like these folks. Thank you Comfort inn for the southern hospitality! Definatly will stay at this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r259120750-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259120750</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Great service and wonderful stay</t>
+  </si>
+  <si>
+    <t>I really enjoy the excellent service of the front desk staff and workers. I always have a great stay here and will definitely stay again. The breakfast is really good and the rooms are spacious. The water pressure in the shower isn't great, but overall....I had a great stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded March 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2015</t>
+  </si>
+  <si>
+    <t>I really enjoy the excellent service of the front desk staff and workers. I always have a great stay here and will definitely stay again. The breakfast is really good and the rooms are spacious. The water pressure in the shower isn't great, but overall....I had a great stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r256277051-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256277051</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel &amp; service!</t>
+  </si>
+  <si>
+    <t>It's a great hotel with comfortable facilities, delicious breakfast included, and most importantly an awesome front desk person named Robert who is always willing to help! Great attitude personnel....MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Qualityinntxf81, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded February 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2015</t>
+  </si>
+  <si>
+    <t>It's a great hotel with comfortable facilities, delicious breakfast included, and most importantly an awesome front desk person named Robert who is always willing to help! Great attitude personnel....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r255427432-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255427432</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>at home</t>
+  </si>
+  <si>
+    <t>I lived in this hotel for two months, really made me feel at home, the staff are very friendly, especially Robert remember I had a problem with my car and Robert helped me solve it, he is a man who is always cheerful and always attentive to give good service, they can ask for as Bro.Good wishes for this hotel and its staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Qualityinntxf81, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>I lived in this hotel for two months, really made me feel at home, the staff are very friendly, especially Robert remember I had a problem with my car and Robert helped me solve it, he is a man who is always cheerful and always attentive to give good service, they can ask for as Bro.Good wishes for this hotel and its staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r255419900-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255419900</t>
+  </si>
+  <si>
+    <t>Great Place to stay, even better staff</t>
+  </si>
+  <si>
+    <t>Robert has always taken great care of my girlfriend and I anytime we have needed a hotel in Houston. I couldn't imagine staying anywhere else. My rooms have always been clean and tidy, and you can't beat the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Robert has always taken great care of my girlfriend and I anytime we have needed a hotel in Houston. I couldn't imagine staying anywhere else. My rooms have always been clean and tidy, and you can't beat the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r255117441-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255117441</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I travel for business all the time. This hotel great place to stay. Rooms are clean and nice. Price is great for a business traveler like myself and Robert at the front desk is wonderful....takes good care I of me everytime I stay there. MoreShow less</t>
+  </si>
+  <si>
+    <t>Qualityinntxf81, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2015</t>
+  </si>
+  <si>
+    <t>I travel for business all the time. This hotel great place to stay. Rooms are clean and nice. Price is great for a business traveler like myself and Robert at the front desk is wonderful....takes good care I of me everytime I stay there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r255104731-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255104731</t>
+  </si>
+  <si>
+    <t>Very Courteous Staff</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is located within a short walking distance of restaurants with many more within a five minute drive. This motel is a little old but the courteous service of the staff makes up for the aging establishment. I have stayed at this location many times over the last two years. One individual named Robert that is at the front desk always has a pleasant smile and greets you by name when you check in. I have observed him greet others by name as well so I know it is not just me. If I call the motel and Robert answers I know things are going to be OK. Robert follows up to make sure everything is satisfactory with your room and even acknowledges you as you come and go throughout the evening.  Robert is a big plus for this motelMoreShow less</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is located within a short walking distance of restaurants with many more within a five minute drive. This motel is a little old but the courteous service of the staff makes up for the aging establishment. I have stayed at this location many times over the last two years. One individual named Robert that is at the front desk always has a pleasant smile and greets you by name when you check in. I have observed him greet others by name as well so I know it is not just me. If I call the motel and Robert answers I know things are going to be OK. Robert follows up to make sure everything is satisfactory with your room and even acknowledges you as you come and go throughout the evening.  Robert is a big plus for this motelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r247270524-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247270524</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Cheated</t>
+  </si>
+  <si>
+    <t>Made the mistake of staying here 12/30/14 and 12/31/14. For 100 bucks a night you would expect breakfast, right? NOPE! Not here....due to lowoccupancy (wonder why), the person in charge must've decided to pinchpennies and not serve breakfast New Year's morning. Motel 6 is half theprice, decent accommodations, and with the money saved one can afford agood breakfast at IHOP and have money to spare.To the management: Cheating one customer will cost you many!!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r197169749-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197169749</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Nice and friendly</t>
+  </si>
+  <si>
+    <t>I didn't have reservation and they gave me a room.  The place is well maintained and very clean.  The service is good and very friendly.  I would come here again if I need a place to stay.  Overall a great experience.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r177264097-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177264097</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Updated hotel, very good value!</t>
+  </si>
+  <si>
+    <t>I chose to stay at this hotel because I had business down the street and and it was over $100 less a night than the Crowne Plaza at the other end of the block which I have previously stayed at and reviewed.  Obviously a Comfort Inn is a no-frills hotel, but I was extremely pleased with the experience and value.  The hotel appears to have been updated fairly recently, and everything appeared new and clean.  The room was very modern and well appointed, and although I am not a fan of in-room air conditioner units, this one was fairly quiet and worked well.  All of the staff was very friendly and the check in and check out procedure was quick.  They have a small dining area in the main lobby near the front desk where breakfast is offered.  It worked well for meeting briefly with a client in the evening.  My room was a King Suite which had a small alcove with a desk which worked very well.  I paid around $119/night while the Crowne Plaza down the street, whose rooms need updating, was about $219/night.  I would stay here again.  If you are just looking for a clean place to sleep at a fair price, I would give this hotel your consideration.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I chose to stay at this hotel because I had business down the street and and it was over $100 less a night than the Crowne Plaza at the other end of the block which I have previously stayed at and reviewed.  Obviously a Comfort Inn is a no-frills hotel, but I was extremely pleased with the experience and value.  The hotel appears to have been updated fairly recently, and everything appeared new and clean.  The room was very modern and well appointed, and although I am not a fan of in-room air conditioner units, this one was fairly quiet and worked well.  All of the staff was very friendly and the check in and check out procedure was quick.  They have a small dining area in the main lobby near the front desk where breakfast is offered.  It worked well for meeting briefly with a client in the evening.  My room was a King Suite which had a small alcove with a desk which worked very well.  I paid around $119/night while the Crowne Plaza down the street, whose rooms need updating, was about $219/night.  I would stay here again.  If you are just looking for a clean place to sleep at a fair price, I would give this hotel your consideration.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r164019746-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164019746</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>As good as it gets!</t>
+  </si>
+  <si>
+    <t>A Diamond member ever year with Choice hotels, I have some real experience. This is in my top five Choice properties. Clean, well maintained, good staff, a 'good as it gets' breakfast spread. An overall very good experience. Pricey, but as they say, "location, location, location"!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r67734772-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>67734772</t>
+  </si>
+  <si>
+    <t>06/16/2010</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>A very nice hotel.  Close to lots of restaurants.  Front desk staff at check in was very cordial and helpful.  Room was clean and relatively new furnishings.  No closet and small bathroom so not designed for lengthy stays.  Excellent breakfast.  Plenty of parking.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r59579327-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59579327</t>
+  </si>
+  <si>
+    <t>03/26/2010</t>
+  </si>
+  <si>
+    <t>We would come back</t>
+  </si>
+  <si>
+    <t>I am pretty fussy about the hotel I stay in. I have asthma.  This hotel was pretty clean. Breakfast was good.Husband and I had a nice stay.  Staff was friendly.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r54693113-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>54693113</t>
+  </si>
+  <si>
+    <t>01/29/2010</t>
+  </si>
+  <si>
+    <t>Good stay, clean rooms</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel as part of road trip to Florida (via the great city of Austin, TX!)The hotel is just off of hwy 290, which made it convenient for us traveling thru Houston from Austin.  Stayed in Rm 220, and checked in by very efficent staff - early checkin. very clean room, comfortable beds, and nice bathroom, with in room coffee. plenty of TV choice. Nearby a lot of restaurants which is always a good thing.The breakfast was good, with boiled eggs, meat, waffles etc, with very attentive staff keeping everything clean. Overall, great stay.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r29221560-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>29221560</t>
+  </si>
+  <si>
+    <t>05/03/2009</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>My family and I checked into this hotel late Easter night for a one night stay.  The front desk staff were efficient and friendly, our room was clean, the breakfast area was well stocked, and the location worked well for us.  We thought that it was a great value for the amount we spent.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r26214275-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26214275</t>
+  </si>
+  <si>
+    <t>03/15/2009</t>
+  </si>
+  <si>
+    <t>Okay choice</t>
+  </si>
+  <si>
+    <t>I stayed in the Comfort Inn one night on Wednesday, March 11…paid $80 dollars for the night which included internet access and breakfast.  I found the hotel clean and comfortable...good internet access.  The carpet appeared to be fairly new and the hallway had the smell of new paint.  The breakfast was okay - juice, coffee, sausage, and pancakes plus a reasonable selection of cereals.  Just across the street (easy walk), there are several places to eat and a Starbuck right next door.  It's not a fancy 4 star hotel, but I found it to be quite satisfactory and a worthy place to stay.  I'm in Houston every couple of weeks and will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I stayed in the Comfort Inn one night on Wednesday, March 11…paid $80 dollars for the night which included internet access and breakfast.  I found the hotel clean and comfortable...good internet access.  The carpet appeared to be fairly new and the hallway had the smell of new paint.  The breakfast was okay - juice, coffee, sausage, and pancakes plus a reasonable selection of cereals.  Just across the street (easy walk), there are several places to eat and a Starbuck right next door.  It's not a fancy 4 star hotel, but I found it to be quite satisfactory and a worthy place to stay.  I'm in Houston every couple of weeks and will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r22005094-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22005094</t>
+  </si>
+  <si>
+    <t>11/19/2008</t>
+  </si>
+  <si>
+    <t>Beware of Bed Bugs</t>
+  </si>
+  <si>
+    <t>My stay at this hotel ended abruptly after 2 nights when I found a bed bug crawling across me.  I only found one, and did not see any other signs of an infestation.  Hotel management did not charge me for the time I had spent, and to be safe I had my luggage professionally exterminated once I returned home.  Unfortunately, this problem has put a sour taste in my mouth for value-based hotels and it's unlikely that I will stay in a Comfort Inn again.Aside from this problem, overall the hotel was fair for the price.  My room had a moisture odor, however it was bearable.  The breakfast was also a little better than your average "run of the mill" continental breakfasts.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>managertx989, manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded April 20, 2009</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2009</t>
+  </si>
+  <si>
+    <t>My stay at this hotel ended abruptly after 2 nights when I found a bed bug crawling across me.  I only found one, and did not see any other signs of an infestation.  Hotel management did not charge me for the time I had spent, and to be safe I had my luggage professionally exterminated once I returned home.  Unfortunately, this problem has put a sour taste in my mouth for value-based hotels and it's unlikely that I will stay in a Comfort Inn again.Aside from this problem, overall the hotel was fair for the price.  My room had a moisture odor, however it was bearable.  The breakfast was also a little better than your average "run of the mill" continental breakfasts.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1597,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1629,2990 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>181</v>
+      </c>
+      <c r="X19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>222</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>223</v>
+      </c>
+      <c r="X23" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>222</v>
+      </c>
+      <c r="O24" t="s">
+        <v>122</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>231</v>
+      </c>
+      <c r="X24" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>239</v>
+      </c>
+      <c r="X25" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X26" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>256</v>
+      </c>
+      <c r="X27" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>264</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>265</v>
+      </c>
+      <c r="X28" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>273</v>
+      </c>
+      <c r="X29" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" t="s">
+        <v>279</v>
+      </c>
+      <c r="L30" t="s">
+        <v>280</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>281</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>282</v>
+      </c>
+      <c r="X30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s">
+        <v>289</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>281</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>290</v>
+      </c>
+      <c r="X31" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s">
+        <v>297</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>298</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" t="s">
+        <v>304</v>
+      </c>
+      <c r="K34" t="s">
+        <v>313</v>
+      </c>
+      <c r="L34" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>315</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>308</v>
+      </c>
+      <c r="X34" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>317</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>318</v>
+      </c>
+      <c r="J35" t="s">
+        <v>319</v>
+      </c>
+      <c r="K35" t="s">
+        <v>320</v>
+      </c>
+      <c r="L35" t="s">
+        <v>321</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>322</v>
+      </c>
+      <c r="X35" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K36" t="s">
+        <v>327</v>
+      </c>
+      <c r="L36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>322</v>
+      </c>
+      <c r="X36" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>335</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>337</v>
+      </c>
+      <c r="J38" t="s">
+        <v>338</v>
+      </c>
+      <c r="K38" t="s">
+        <v>339</v>
+      </c>
+      <c r="L38" t="s">
+        <v>340</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>341</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>343</v>
+      </c>
+      <c r="J39" t="s">
+        <v>344</v>
+      </c>
+      <c r="K39" t="s">
+        <v>345</v>
+      </c>
+      <c r="L39" t="s">
+        <v>346</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>347</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>349</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>350</v>
+      </c>
+      <c r="J40" t="s">
+        <v>351</v>
+      </c>
+      <c r="K40" t="s">
+        <v>352</v>
+      </c>
+      <c r="L40" t="s">
+        <v>353</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>355</v>
+      </c>
+      <c r="J41" t="s">
+        <v>356</v>
+      </c>
+      <c r="K41" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" t="s">
+        <v>358</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>359</v>
+      </c>
+      <c r="O41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>361</v>
+      </c>
+      <c r="J42" t="s">
+        <v>362</v>
+      </c>
+      <c r="K42" t="s">
+        <v>363</v>
+      </c>
+      <c r="L42" t="s">
+        <v>364</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>365</v>
+      </c>
+      <c r="O42" t="s">
+        <v>132</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>371</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>377</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>379</v>
+      </c>
+      <c r="J45" t="s">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s">
+        <v>381</v>
+      </c>
+      <c r="L45" t="s">
+        <v>382</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>386</v>
+      </c>
+      <c r="J46" t="s">
+        <v>387</v>
+      </c>
+      <c r="K46" t="s">
+        <v>388</v>
+      </c>
+      <c r="L46" t="s">
+        <v>389</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>390</v>
+      </c>
+      <c r="O46" t="s">
+        <v>132</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>391</v>
+      </c>
+      <c r="X46" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_103.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_103.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="635">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,36 +150,147 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r610966874-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223180</t>
+  </si>
+  <si>
+    <t>610966874</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>Comfort inn</t>
+  </si>
+  <si>
+    <t>It was very nice and quiet. The bed was extremely comfortable and the staff was also nice! My boyfriend and I stayed 2 nights for my birthday weekend and It was a success. Thanks for the great service y’all gave!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>It was very nice and quiet. The bed was extremely comfortable and the staff was also nice! My boyfriend and I stayed 2 nights for my birthday weekend and It was a success. Thanks for the great service y’all gave!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r605339538-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>605339538</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay. Friendly staff</t>
+  </si>
+  <si>
+    <t>I had visited this place with family and everything was really pleasant here. Staff were friendy. Hotel was clean and comfortable and breakfast was also satisfactory. Was not to expensive either. Would recommend this place to any familyMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I had visited this place with family and everything was really pleasant here. Staff were friendy. Hotel was clean and comfortable and breakfast was also satisfactory. Was not to expensive either. Would recommend this place to any familyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r590519928-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590519928</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>I stayed here while in town for continuing education classes.  The hotel has a great location.  The staff were very friendly and helpful while I stayed there.  The room was very spacious and I did not have any issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here while in town for continuing education classes.  The hotel has a great location.  The staff were very friendly and helpful while I stayed there.  The room was very spacious and I did not have any issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r488939772-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488939772</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>TV with no picture</t>
+  </si>
+  <si>
+    <t>The TV had only audio.  The front desk was aware of the issue and did nothing to resolve.  They were aware of the issue over a week.  Breakfast hot items were not plentiful.  There are better options in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>The TV had only audio.  The front desk was aware of the issue and did nothing to resolve.  They were aware of the issue over a week.  Breakfast hot items were not plentiful.  There are better options in the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r488808810-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223180</t>
-  </si>
-  <si>
     <t>488808810</t>
   </si>
   <si>
-    <t>05/29/2017</t>
-  </si>
-  <si>
     <t>Unimpressed</t>
   </si>
   <si>
     <t>My family and I drove 5 hours to a attend three graduations schedule for this weekend in Katy. Upon arrival check in with smooth went to our room unpacked turned on the AC unit noticing that the room was hot after the AC unit was on for about an hour we realized that the room was not cooling down. Went to the front desk and spoke with the night gentleman and he stated that we always have problems with the A/c in these rooms I can switch you to another upon which he did. The first morning for the continental breakfast everything was smooth food was great standard however the muffins were hard the bread was stale and the eggs were a little bit on the cool side. The breakfast food area or Cafe it's across from front desk which is normal however the front desk agent stared as we ate our breakfast it was very uncomfortable. The second night staying there went quite smoothly second morning for breakfast however the attendant was late so we went down roughly about 7:30 almost 8 and she was just getting the food out while the front desk agent and never mentioned to us that there was a delay on the breakfast she just also stood there and stared another day at us in the breakfast area. Food was lackluster cold as well as stale. On our last day visiting the hotel my...My family and I drove 5 hours to a attend three graduations schedule for this weekend in Katy. Upon arrival check in with smooth went to our room unpacked turned on the AC unit noticing that the room was hot after the AC unit was on for about an hour we realized that the room was not cooling down. Went to the front desk and spoke with the night gentleman and he stated that we always have problems with the A/c in these rooms I can switch you to another upon which he did. The first morning for the continental breakfast everything was smooth food was great standard however the muffins were hard the bread was stale and the eggs were a little bit on the cool side. The breakfast food area or Cafe it's across from front desk which is normal however the front desk agent stared as we ate our breakfast it was very uncomfortable. The second night staying there went quite smoothly second morning for breakfast however the attendant was late so we went down roughly about 7:30 almost 8 and she was just getting the food out while the front desk agent and never mentioned to us that there was a delay on the breakfast she just also stood there and stared another day at us in the breakfast area. Food was lackluster cold as well as stale. On our last day visiting the hotel my son just asked if he can go and swim I agree however swimming was not as fun as he thought it would be after  finding that they two dead birds and one dead cockroach in the pool. Overall the cleanliness of the hotel room and the housekeeping staff needs to be recommended they went above and beyond however when it comes down to the breakfast the pool area as well as the female front desk agent that needs to be addressed it did not make the visit as inviting nor as comfortable as it should have been.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>ComfortInn290, Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 1, 2017</t>
   </si>
   <si>
@@ -207,9 +318,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded April 14, 2017</t>
   </si>
   <si>
@@ -246,6 +354,60 @@
     <t>This was just an overnight stay for a work trip.  The room was very spacious, clean and very comfortable. The staff ASM commode ting and friendly. Their hot breakfast was plentiful, varied and good. Mdefinitely recommendMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r439360764-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439360764</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, maintenance could be better</t>
+  </si>
+  <si>
+    <t>Overall stay was good. Staff was pleasant. Parking is sufficient, which is good for the extra tow we had. Only issue was in regards to the a/c not cooling properly. We kept it on full blast for 45 minutes and still nothing. Maintenance did get to it later, but the texas heat made it difficult to get comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Overall stay was good. Staff was pleasant. Parking is sufficient, which is good for the extra tow we had. Only issue was in regards to the a/c not cooling properly. We kept it on full blast for 45 minutes and still nothing. Maintenance did get to it later, but the texas heat made it difficult to get comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r415728925-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415728925</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>The room smelled like bug spray and I found a dead cockroach on the carpet by the bed. Room wastage and bed very comfortable. Hotel is at a good location and friendly staff. Breakfast was good as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>The room smelled like bug spray and I found a dead cockroach on the carpet by the bed. Room wastage and bed very comfortable. Hotel is at a good location and friendly staff. Breakfast was good as well.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r398444727-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -313,6 +475,54 @@
   </si>
   <si>
     <t>Wow nice Hotel  and a value for price paid.Was greeted with a warm welcome from the front desk.I was checked in fast, and the room was big and clean.In the morning I was treated to a tasty breakfast.What more can you ask for for under 100.00More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r394456597-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394456597</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>No water presssure and a soft bed.</t>
+  </si>
+  <si>
+    <t>I had to fly to Houston on Sunday, July 10th to attend a funeral on the 11th.  Some family members had made reservations at this hotel, so I did the same so that we could spend some time together.This hotel chain is an economy chain, so my expectations were not high.  The staff was very accommodating and friendly.  Check in and check out were both efficient and well done.  The property was clean.  Their breakfast was fine for the price point.  But the bed was very soft with a few lumps.  Nothing terrible for the level of facility.However, the water pressure in the tub for my morning shower was literally nonexistent.  The water barely made it out of the shower head.  And the faucet on the sink would only allow warm or hot water...no cold.Again...I get it.  This isn't the Ritz-Carlton or the Peninsula.  But decent water pressure is a base requirement in my book.  So I would tell anyone looking for this type of property in the area to simply look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortInn290, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2016</t>
+  </si>
+  <si>
+    <t>I had to fly to Houston on Sunday, July 10th to attend a funeral on the 11th.  Some family members had made reservations at this hotel, so I did the same so that we could spend some time together.This hotel chain is an economy chain, so my expectations were not high.  The staff was very accommodating and friendly.  Check in and check out were both efficient and well done.  The property was clean.  Their breakfast was fine for the price point.  But the bed was very soft with a few lumps.  Nothing terrible for the level of facility.However, the water pressure in the tub for my morning shower was literally nonexistent.  The water barely made it out of the shower head.  And the faucet on the sink would only allow warm or hot water...no cold.Again...I get it.  This isn't the Ritz-Carlton or the Peninsula.  But decent water pressure is a base requirement in my book.  So I would tell anyone looking for this type of property in the area to simply look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r393935780-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393935780</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Real Nice</t>
+  </si>
+  <si>
+    <t>While in Houston, I did a last minute search for Hotel's close to me. This was a option. The property was nice, front desk clerk very friendly, Non Smoking, I smoke a pipe so he gave me a bottom floor by a exit door. The room was very nice, bed was wonderful, AC worked well and the TV was a flat screen, worked well. If I had to pick one thing to complain about. Price was a little high. $98. buck, also the shower pressure was just OK, got the job done. but a little more pressure would have been nice. Would I stay here again. YES. Can't forget the breakfast. better than average. Eggs, Bacon and biscuit's and gravy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>While in Houston, I did a last minute search for Hotel's close to me. This was a option. The property was nice, front desk clerk very friendly, Non Smoking, I smoke a pipe so he gave me a bottom floor by a exit door. The room was very nice, bed was wonderful, AC worked well and the TV was a flat screen, worked well. If I had to pick one thing to complain about. Price was a little high. $98. buck, also the shower pressure was just OK, got the job done. but a little more pressure would have been nice. Would I stay here again. YES. Can't forget the breakfast. better than average. Eggs, Bacon and biscuit's and gravy.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r374687229-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
@@ -387,9 +597,6 @@
 The bill to repair our vehicle was over $500.  I asked the general manager, if he...My wife recently went to visit here brother who was admitted to a medical facility near this property.  She stayed there one night.  The rate was reasonable ($80/per night).  She arrived late from the hospital, but was still able to find a well lit parking space.  The next morning when she went to her car she found that it had been broken into.  The driver's side lock had been knocked out and the passenger side lock was damaged.  The only thing stolen was a bottle of water.She reported the incident to the front desk and was told that someone would be getting in touch with her.  After a few days of not hearing from anyone, she called the motel and was again informed that she would be contacted.  She did receive an e mail from the motels general manager.  He stated, "  I can imagine ​your frustration regarding this matter. I wanted to reach out to you personally to apologize. ​It is with regret I inform you that unfortunately there is nothing we can do monetarily. We are not responsible for any damage cause to vehicles in our parking lot. Despite our security cameras and regular police patrols, these incidences are beyond our control. I can and have discounted 25 percent off of your stay as a small token of our gratitude. "The bill to repair our vehicle was over $500.  I asked the general manager, if he could  at least comp the room for the night.  He said that he could not do that.  Basically, $20 was their best offer.I would not suggest this property for women staying alone, for those who may have to leave property inside their vehicle, or for those who may have a vehicle that looks like it is deemed worthy to break in to.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>ComfortInn290, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded January 27, 2016</t>
   </si>
   <si>
@@ -402,6 +609,51 @@
 The bill to repair our vehicle was over $500.  I asked the general manager, if he...My wife recently went to visit here brother who was admitted to a medical facility near this property.  She stayed there one night.  The rate was reasonable ($80/per night).  She arrived late from the hospital, but was still able to find a well lit parking space.  The next morning when she went to her car she found that it had been broken into.  The driver's side lock had been knocked out and the passenger side lock was damaged.  The only thing stolen was a bottle of water.She reported the incident to the front desk and was told that someone would be getting in touch with her.  After a few days of not hearing from anyone, she called the motel and was again informed that she would be contacted.  She did receive an e mail from the motels general manager.  He stated, "  I can imagine ​your frustration regarding this matter. I wanted to reach out to you personally to apologize. ​It is with regret I inform you that unfortunately there is nothing we can do monetarily. We are not responsible for any damage cause to vehicles in our parking lot. Despite our security cameras and regular police patrols, these incidences are beyond our control. I can and have discounted 25 percent off of your stay as a small token of our gratitude. "The bill to repair our vehicle was over $500.  I asked the general manager, if he could  at least comp the room for the night.  He said that he could not do that.  Basically, $20 was their best offer.I would not suggest this property for women staying alone, for those who may have to leave property inside their vehicle, or for those who may have a vehicle that looks like it is deemed worthy to break in to.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r330991238-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330991238</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Great Hospitality!</t>
+  </si>
+  <si>
+    <t>The rooms were clean &amp; neat. I slept well &amp; enjoyed a hot meal the morning after. I plan to use this hotel the next time I'm in town. Thanks Savannah for your professionalism &amp; assistance. You were a GREAT HOSTESS!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>ComfortInn290, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>The rooms were clean &amp; neat. I slept well &amp; enjoyed a hot meal the morning after. I plan to use this hotel the next time I'm in town. Thanks Savannah for your professionalism &amp; assistance. You were a GREAT HOSTESS!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r330801651-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330801651</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Savannah at check-in</t>
+  </si>
+  <si>
+    <t>Very nice, patient, and professional. We made a mistake and booked for wrong day and she helped us out and fixed it. She was awesome. Didn't make us feel awkward for making the mistake. I wish all employees that worked in hotels were as nice as she was.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice, patient, and professional. We made a mistake and booked for wrong day and she helped us out and fixed it. She was awesome. Didn't make us feel awkward for making the mistake. I wish all employees that worked in hotels were as nice as she was.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r324896512-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -420,9 +672,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded November 9, 2015</t>
   </si>
   <si>
@@ -480,6 +729,60 @@
     <t>The service was excellent!! Robert, the way you say "No problems" is simply great :) Thanks for the great service and assistance. It was pleasure to be here.Hope to visit again in the future.Will suggest others about Comfort inn More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r307977684-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307977684</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Hotel right off the highway.  </t>
+  </si>
+  <si>
+    <t>While traveling from Laredo Tx to Boca Raton Florida by car we stopped at this hotel to break up the trip.  Nice clean hotel with comp breakfast .  Only stayed one night with two rooms.  Nothing special just a clean bed for the night.  Front desk was helpful setting up an account so we could receive addition points for a future stay at Choice hotelsMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>ComfortInn290, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>While traveling from Laredo Tx to Boca Raton Florida by car we stopped at this hotel to break up the trip.  Nice clean hotel with comp breakfast .  Only stayed one night with two rooms.  Nothing special just a clean bed for the night.  Front desk was helpful setting up an account so we could receive addition points for a future stay at Choice hotelsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r304425298-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304425298</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Really does feel like home.</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and the one thing that stands out to me is the fact that the staff is very friendly. They have accommodated me on several occasions, such as giving the room I want and correcting check-in dates when I set up the wrong date on the internet. The fitness equipment is small but workable, which is a big deal for me since I hate checking in to a hotel with broken equipment. The beds are also comfortable. So far, everything in the room has worked whenever I have checked in. Plus, it's always cool that every time I have checked, they have free cookies upon arrival.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>ComfortInn290, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and the one thing that stands out to me is the fact that the staff is very friendly. They have accommodated me on several occasions, such as giving the room I want and correcting check-in dates when I set up the wrong date on the internet. The fitness equipment is small but workable, which is a big deal for me since I hate checking in to a hotel with broken equipment. The beds are also comfortable. So far, everything in the room has worked whenever I have checked in. Plus, it's always cool that every time I have checked, they have free cookies upon arrival.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r301554535-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -495,9 +798,6 @@
     <t>I stayed here for three weeks on business and loved it.  The hotel is well maintained with new furnishings and fixtures.  The staff is friendly and helpful.  The grounds are fenced and secure.  The location on 290 is convenient to downtown and outlying areas; allowing for Houston's famous traffic.  The site is surrounded by food choices of all types; with a wide selection within walking distance.  A Walmart, a Target, an Office Depot and FedEx are all within sight of the building.  Parking is good in the rear, and the building has two very, very fast elevators so there's never a wait.  Good free, coffee at any hour, and a very good hot breakfast with omelets and waffles.   Fresh cookies every evening, and free, cold bottled water anytime at the desk.  Coke machines in the hallways actually worked; at only $1.50 per 20 oz drink.  Plenty of free ice, also.  A very nice hotel at a reasonable price.  Smoking rooms are available.  HWY 290 out front is under long-term construction, but don't be put off by it.  Highway construction is everywhere in Houston, and once you learn the exits near the hotel, it's as convenient as anywhere else.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded August 24, 2015</t>
   </si>
   <si>
@@ -540,9 +840,6 @@
     <t>Well, when I got off the interstate it was night and dark, the entrance to the hotel property is in back of a little strip mall, and I thought it might be a little sketchy. But the hotel was clean, the staff friendly, and the bed very sleepable--it that's a word.The next morning revealed that the neighborhood wasn't as "sketchy" as it had appeared to a tired traveler the night before. Walked to a convenience store, took a stroll through an apartment complex. Breakfast was good, pretty standard for this type of hotel. Easy access for my nephew to come and get me so we could explore downtown, catch a ball game, etc. The shower pressure could have been a little stronger. And it would have been nice to have an ice machine other than on the 4th floor. The staff, with the exception of the breakfast hostess--who was a little bit of a pill, were friendly, happy to answer questions, and attentive to their jobs. Nice training.If you want luxury--your aren't staying here. But for a good, basic, overall good hotel, you should give this a try.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>ComfortInn290, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded August 17, 2015</t>
   </si>
   <si>
@@ -552,6 +849,48 @@
     <t>Well, when I got off the interstate it was night and dark, the entrance to the hotel property is in back of a little strip mall, and I thought it might be a little sketchy. But the hotel was clean, the staff friendly, and the bed very sleepable--it that's a word.The next morning revealed that the neighborhood wasn't as "sketchy" as it had appeared to a tired traveler the night before. Walked to a convenience store, took a stroll through an apartment complex. Breakfast was good, pretty standard for this type of hotel. Easy access for my nephew to come and get me so we could explore downtown, catch a ball game, etc. The shower pressure could have been a little stronger. And it would have been nice to have an ice machine other than on the 4th floor. The staff, with the exception of the breakfast hostess--who was a little bit of a pill, were friendly, happy to answer questions, and attentive to their jobs. Nice training.If you want luxury--your aren't staying here. But for a good, basic, overall good hotel, you should give this a try.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r294849772-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294849772</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Great service and friendly staff, especially Robert and Merlise.</t>
+  </si>
+  <si>
+    <t>My company stays an average of 30+ hotel nights per month and the staff always greets myself and my employees with a smile and is eager to make us feel welcome. Clean and comfortable rooms, nice breakfast every morning and lots of good restaurants near by. The remodeling improvements are nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>My company stays an average of 30+ hotel nights per month and the staff always greets myself and my employees with a smile and is eager to make us feel welcome. Clean and comfortable rooms, nice breakfast every morning and lots of good restaurants near by. The remodeling improvements are nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r294482298-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294482298</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Great stay!!!!Friendly staff. I was helped by Marleth she was very sweet and helpful. I was new in town and wanted to visit new places. She made great suggestions, which made my first visit to Houston unforgettable.The rooms were very clean. I enjoyed my stay. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great stay!!!!Friendly staff. I was helped by Marleth she was very sweet and helpful. I was new in town and wanted to visit new places. She made great suggestions, which made my first visit to Houston unforgettable.The rooms were very clean. I enjoyed my stay. I would definitely stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r294220486-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -609,6 +948,36 @@
     <t>A very nice, well maintained motel, with a Hotel like ambiance. I visit Houston often for business, but not often enough, in my opinion, to be recognized by staff. However, Robert never fails to greet me with a familiarity that is both, sincere and refreshing. A sense of home when away from it. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r293490570-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293490570</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>I stay here a lot for business. Robert, that works at the front desk will bend over backwards to help out a customer. The rest of the crew is good as well. It is a good stay when compared to other hotels  and prices in the area. Only downfall is the neighborhood in the area. Be cautious at night coming and going. Lock vehicle and keep valuables out of sight.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here a lot for business. Robert, that works at the front desk will bend over backwards to help out a customer. The rest of the crew is good as well. It is a good stay when compared to other hotels  and prices in the area. Only downfall is the neighborhood in the area. Be cautious at night coming and going. Lock vehicle and keep valuables out of sight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r293437523-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293437523</t>
+  </si>
+  <si>
+    <t>Owner Tyton 2 trucking</t>
+  </si>
+  <si>
+    <t>The whole staff were so nice .my room was very clean every day.breakfast was super ! I'm giving a shout out to Robert on the evening shift , as he was very helpful and very friendly.I was thee a week and will stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>The whole staff were so nice .my room was very clean every day.breakfast was super ! I'm giving a shout out to Robert on the evening shift , as he was very helpful and very friendly.I was thee a week and will stay again. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r293240445-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -675,6 +1044,51 @@
     <t>The elevator smelled like an ash tray. The 4th floor hallway was smelly as well. The first room assigned on the 4th floor had mold on the ceiling. The room felt damp, musty and not clean. We were afraid to walk on the carpet. The phone had crumbs and spills on it. It's an old hotel that has been poorly renovated. The loud window unit air conditioning had some kind of water cooling system and made a constant gurgling sound.  We thought about using the pool but it was green. The nice front desk operator, Robert, let me look at 2 other rooms on the 1st floor. I didn't want to stay but had already paid for the night.  The room on the 1st floor was somewhat better and I agreed to stay. He discounted my rate. The reviews on this hotel were 4/5 stars. Definitely not up to 4/5 stars in my book. Feeling misled.  I had booked 2 nights at this hotel for my daughter to do some testing nearby.  I cancelled the second night and moved hotels.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r287021847-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287021847</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Always the friendliest</t>
+  </si>
+  <si>
+    <t>I stay here at least once a month for work. When I call to make my reservation they all know me by my name, make my reservation in seconds and I always get the room that I like. When I check in I'm greeted by my first name and they always have my room key ready with no waiting.Robert and Marleth are the best! I'm in the customer service industry and they are the true essence of customer service I've found here in Houston. The housekeeping ladies do an excellent job keeping my room clean as I like it.I highly recommend this hotel because of their staff!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here at least once a month for work. When I call to make my reservation they all know me by my name, make my reservation in seconds and I always get the room that I like. When I check in I'm greeted by my first name and they always have my room key ready with no waiting.Robert and Marleth are the best! I'm in the customer service industry and they are the true essence of customer service I've found here in Houston. The housekeeping ladies do an excellent job keeping my room clean as I like it.I highly recommend this hotel because of their staff!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r284532533-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284532533</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Alright</t>
+  </si>
+  <si>
+    <t>I stayed here on while I had business in Houston and here are my thoughts.Pros-Only hotel I've found with no age limit that stays true to there word.-Comfortable bed-Easy to find -Front desk lady was kind and helpfulCons-Hallways and elevator were unusually hot and muggy with the occasional poor smell.-A/C was noisy at night and would constantly kick on to accommodate for the warmth which means is was always noisy.-They nailed the picture in my room on the wall crooked. (Not really a complaint but, really?)-Bathroom doorway had tile that was broken and able to be lifted out as well as have shards that are pointen and able to cut or be stuck in your foot.-Hotel is bringing to become outdated compare to other hotels.-Breakfast could be better but hey its free!Overall the hotel is decent, could defiantly use a renovation but all-in-all I was content with my stay.*one picture shows how the tile is able to be moved and pointed. The bathroom photo also shows towels on the floor but that was from my stay that I had used.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here on while I had business in Houston and here are my thoughts.Pros-Only hotel I've found with no age limit that stays true to there word.-Comfortable bed-Easy to find -Front desk lady was kind and helpfulCons-Hallways and elevator were unusually hot and muggy with the occasional poor smell.-A/C was noisy at night and would constantly kick on to accommodate for the warmth which means is was always noisy.-They nailed the picture in my room on the wall crooked. (Not really a complaint but, really?)-Bathroom doorway had tile that was broken and able to be lifted out as well as have shards that are pointen and able to cut or be stuck in your foot.-Hotel is bringing to become outdated compare to other hotels.-Breakfast could be better but hey its free!Overall the hotel is decent, could defiantly use a renovation but all-in-all I was content with my stay.*one picture shows how the tile is able to be moved and pointed. The bathroom photo also shows towels on the floor but that was from my stay that I had used.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r283112356-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -690,9 +1104,6 @@
     <t>I am currently living in El Paso came to visit family in Houston my visit couldn't be anymore better!!! The staff was amazing! From the moment I checked in I was greeted with smiles Liz was very professional she wasn't in a rush to check me in was patient when I had trouble locating my cc she was kind to me an my daughters the whole staff was pleasant housekeeping did incredible job being a single mom I appreciated coming to a clean room. I can honestly say I cannot wait to come visit again I will continue to book at this hotel every time I come to Houston thank you for making my visit an amazing one.MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 29, 2015</t>
   </si>
   <si>
@@ -750,15 +1161,66 @@
     <t>I have been there many times and almost every time Robert checks me in, he does it in a very friendly and professional manner and remembers all of his guests.This is a very nice welcome that you don't see very often.He responds to every need or question you may have.He reflects what the rest of the hotel and staff will make you fell.I will go there every time when in Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r276282997-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>276282997</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>Always professional, friendly and go out of their way to help</t>
+  </si>
+  <si>
+    <t>I'm from Birmingham, AL and my business headquarters is here in Houston.  I have been coming to Houston for the last 5 years (3 or 4 times per year) and will only stay at this Comfort Inn.  Robert and his professional, personal attitude remains my main decision for staying at this location.  He always remembers my needs and makes my stay a pleasure.  I'm also impressed with the recent renovations and upgrades (hope they don't raised the rates).  This is a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>I'm from Birmingham, AL and my business headquarters is here in Houston.  I have been coming to Houston for the last 5 years (3 or 4 times per year) and will only stay at this Comfort Inn.  Robert and his professional, personal attitude remains my main decision for staying at this location.  He always remembers my needs and makes my stay a pleasure.  I'm also impressed with the recent renovations and upgrades (hope they don't raised the rates).  This is a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r275365395-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275365395</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Great Staff and place to stay</t>
+  </si>
+  <si>
+    <t>I was there for a couple of weeks, Elizabeth has great costumer service skills, very polite  and very helpful. The area is near retail stores and places to eat, and all in walking distance, And free wifi, the best hotel to stay in around the area and again not far from places to dine at.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>I was there for a couple of weeks, Elizabeth has great costumer service skills, very polite  and very helpful. The area is near retail stores and places to eat, and all in walking distance, And free wifi, the best hotel to stay in around the area and again not far from places to dine at.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r275341990-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
     <t>275341990</t>
   </si>
   <si>
-    <t>05/28/2015</t>
-  </si>
-  <si>
     <t>Great experience.</t>
   </si>
   <si>
@@ -768,12 +1230,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded June 1, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 1, 2015</t>
-  </si>
-  <si>
     <t>Just wanted to say this hotel was awesome.. People are very nice.. Liz reyes was awesome.. Funny perfect attitude and always willing to help.. I would come back just because she made us feel so comfortable.. Thanks again liz... You made this hotel ;)More</t>
   </si>
   <si>
@@ -816,9 +1272,6 @@
     <t>I stayed at this hotel in may 2015. It was clean, the breakfast was good and the staff was very friendly and accommodating. The room was clean and comfortable and had everything that you might expect from a $100/night hotel.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded May 20, 2015</t>
   </si>
   <si>
@@ -828,6 +1281,57 @@
     <t>I stayed at this hotel in may 2015. It was clean, the breakfast was good and the staff was very friendly and accommodating. The room was clean and comfortable and had everything that you might expect from a $100/night hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r267231906-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267231906</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t>This property was nice for the price.  The hotel staff was very accommodating, especially Robert and Andrew.  Thank you for your help, guys!  Easy drive to many places in North West Houston.  I will definitely come again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>This property was nice for the price.  The hotel staff was very accommodating, especially Robert and Andrew.  Thank you for your help, guys!  Easy drive to many places in North West Houston.  I will definitely come again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r266621927-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266621927</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>The hotel is under construction so the sign says however saw no evidence of work in progress. Rooms are old and in need of repair. Tile broke in bathroom furniture scarred some outlets work some do not. Pool out of order. Guest laundry washer out of order. No place to sit outside as all the furniture is located in pool area. Housekeeping speaks no English so unless you know Spanish you are SOL. The area surrounding the hotel is made up of street beggars. The store next to the hotel has trash throughout the parking lot. Overall NOT A GOOD AREA YOU WNAT TO BE IN. The only thing i will say that is positive is all the front desk staff are very friendly and if it wasn't for them the whole experience would have been rated awful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel A, General Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded April 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is under construction so the sign says however saw no evidence of work in progress. Rooms are old and in need of repair. Tile broke in bathroom furniture scarred some outlets work some do not. Pool out of order. Guest laundry washer out of order. No place to sit outside as all the furniture is located in pool area. Housekeeping speaks no English so unless you know Spanish you are SOL. The area surrounding the hotel is made up of street beggars. The store next to the hotel has trash throughout the parking lot. Overall NOT A GOOD AREA YOU WNAT TO BE IN. The only thing i will say that is positive is all the front desk staff are very friendly and if it wasn't for them the whole experience would have been rated awful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r264337968-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -867,9 +1371,6 @@
     <t>My stay was great! My family were very comfortable and we all felt at home. The hotel is clean and cozy. The front desk were great! Very nice folks. Elizabeth at night was really helpful and nice. I love her attitude and her smile! We need more front desk like these folks. Thank you Comfort inn for the southern hospitality! Definatly will stay at this hotel in the future.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>ComfortInn290, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded March 30, 2015</t>
   </si>
   <si>
@@ -903,6 +1404,51 @@
     <t>I really enjoy the excellent service of the front desk staff and workers. I always have a great stay here and will definitely stay again. The breakfast is really good and the rooms are spacious. The water pressure in the shower isn't great, but overall....I had a great stay. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r258862782-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258862782</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Best front desk person I've ever encountered</t>
+  </si>
+  <si>
+    <t>The hotel is good but what makes it even better are the employees especially Robert who works the front desk check in area he's very friendly and helpful and always tells me thanks for the business never was told that by anyone in any other hotel so if management reads this you should give that man a raise he is a good asset to your business whenever in Houston I'll be staying thereMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is good but what makes it even better are the employees especially Robert who works the front desk check in area he's very friendly and helpful and always tells me thanks for the business never was told that by anyone in any other hotel so if management reads this you should give that man a raise he is a good asset to your business whenever in Houston I'll be staying thereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r256453125-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256453125</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Great experience thanks Robert</t>
+  </si>
+  <si>
+    <t>I traveled with a group of friends and I absolutely loved to stay in this hotel ..beds are cozy, breakfasy is good, but the best IS the great Service we received from the hotel staff especially from Robert who made us feel at home .Ill be staying again in comfort inn whenever I come back to houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Qualityinntxf81, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded February 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2015</t>
+  </si>
+  <si>
+    <t>I traveled with a group of friends and I absolutely loved to stay in this hotel ..beds are cozy, breakfasy is good, but the best IS the great Service we received from the hotel staff especially from Robert who made us feel at home .Ill be staying again in comfort inn whenever I come back to houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r256277051-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -918,15 +1464,6 @@
     <t>It's a great hotel with comfortable facilities, delicious breakfast included, and most importantly an awesome front desk person named Robert who is always willing to help! Great attitude personnel....MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
-    <t>Qualityinntxf81, Front Office Manager at Comfort Inn Hwy. 290/NW, responded to this reviewResponded February 27, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 27, 2015</t>
-  </si>
-  <si>
     <t>It's a great hotel with comfortable facilities, delicious breakfast included, and most importantly an awesome front desk person named Robert who is always willing to help! Great attitude personnel....More</t>
   </si>
   <si>
@@ -975,6 +1512,42 @@
     <t>Robert has always taken great care of my girlfriend and I anytime we have needed a hotel in Houston. I couldn't imagine staying anywhere else. My rooms have always been clean and tidy, and you can't beat the price.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r255404632-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255404632</t>
+  </si>
+  <si>
+    <t>Good Location and Stay Each Time - fr Joseph Ding</t>
+  </si>
+  <si>
+    <t>I had traveled to Houston in last six years and always stay this hotel. This hotel is a wonderful place to stay, espacially its location, easy to drive to from IAH air port, easy to access to north,west and south, even east industrial and business areas as well as easy to drive to downtown Galleria Mall and Premium Houston Outlets. Make my each trip much easier, no matter for business and shopping purpose. Mr. Robert Hamilton at the front desk is great and always takes care of me and my friends to stay there each time. The 24h open Walmart is a plus just across street from this hotel. That makes people feeling more convenience when stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I had traveled to Houston in last six years and always stay this hotel. This hotel is a wonderful place to stay, espacially its location, easy to drive to from IAH air port, easy to access to north,west and south, even east industrial and business areas as well as easy to drive to downtown Galleria Mall and Premium Houston Outlets. Make my each trip much easier, no matter for business and shopping purpose. Mr. Robert Hamilton at the front desk is great and always takes care of me and my friends to stay there each time. The 24h open Walmart is a plus just across street from this hotel. That makes people feeling more convenience when stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r255345743-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255345743</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Simply, My Second Home! Superior!</t>
+  </si>
+  <si>
+    <t>I am just blown away by the amazing hospitality that is given to me every time I stay here. I've  stayed here numerous of times and I will continue to come back due to the hospitality. I absolutely want point out a particular worker here, Mr.Robert Hamilton. He is the most wonderful and kind hearted individual you will ever meet. He is the Go to Guy, if you need anything at this Hotel, one word that describes him is Phenomenal!!!! He treats his customers as family and that will cause a business to prosper and because of people like Mr.Robert Hamilton, will cause me to be a repeat customer. Special Thanks To Mr.Robert Hamilton and Comfort Inn SuitesMoreShow less</t>
+  </si>
+  <si>
+    <t>I am just blown away by the amazing hospitality that is given to me every time I stay here. I've  stayed here numerous of times and I will continue to come back due to the hospitality. I absolutely want point out a particular worker here, Mr.Robert Hamilton. He is the most wonderful and kind hearted individual you will ever meet. He is the Go to Guy, if you need anything at this Hotel, one word that describes him is Phenomenal!!!! He treats his customers as family and that will cause a business to prosper and because of people like Mr.Robert Hamilton, will cause me to be a repeat customer. Special Thanks To Mr.Robert Hamilton and Comfort Inn SuitesMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r255117441-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1605,39 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r241882658-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241882658</t>
+  </si>
+  <si>
+    <t>11/28/2014</t>
+  </si>
+  <si>
+    <t>Much better than expected</t>
+  </si>
+  <si>
+    <t>Very friendly staff. This was a business stay for 3 nights. Hotel is clean and comfortable. Standard Comfort Inn. Lobby was very clean, as well as the guest room. Plenty of local restaurants, I would stay again.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r239820728-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239820728</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Desperate times call for desperate measures</t>
+  </si>
+  <si>
+    <t>After trying to obtain a room in Houston hotels for over an hour we finally came across a vacancy at this hotel.  This SHOULD have been a sign.  This hotel was reasonably attractive and neat looking from the outside, however inside was another story.  This hotel had a strange musty smell and is in need of updating.  We originally booked for 3 nights but thankfully we were able to find another room for the remaining nights at another hotel.  A deep cleaning along with some updating is needed in order for my husband and I to stay here in the future.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r197169749-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1692,45 @@
     <t>A Diamond member ever year with Choice hotels, I have some real experience. This is in my top five Choice properties. Clean, well maintained, good staff, a 'good as it gets' breakfast spread. An overall very good experience. Pricey, but as they say, "location, location, location"!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r161917246-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161917246</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Not bad but not good either.</t>
+  </si>
+  <si>
+    <t>Let me preface this review by saying that I don't normally stay at Comfort Inn's while traveling.  However, the 2nd week of May had a huge convention in town and my normal places in Houston were all booked so this is the best the travel agent could do for me.  It was 8-9 miles away from my business which was not convenient.  The hotel itself was fairly basic.  The room had a faint smell to it - at least when the A/C was running.  The room was clean - just a little worn.  There wasn't a real closet - just a large cabinet which made it hard to hang up pants.  There was a breakfast in the morning which had all the basics.  Finally, the morning front desk staff was not responsive - the lady was more concerned with her phone call than the customer in front of her.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Let me preface this review by saying that I don't normally stay at Comfort Inn's while traveling.  However, the 2nd week of May had a huge convention in town and my normal places in Houston were all booked so this is the best the travel agent could do for me.  It was 8-9 miles away from my business which was not convenient.  The hotel itself was fairly basic.  The room had a faint smell to it - at least when the A/C was running.  The room was clean - just a little worn.  There wasn't a real closet - just a large cabinet which made it hard to hang up pants.  There was a breakfast in the morning which had all the basics.  Finally, the morning front desk staff was not responsive - the lady was more concerned with her phone call than the customer in front of her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r81648136-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>81648136</t>
+  </si>
+  <si>
+    <t>09/30/2010</t>
+  </si>
+  <si>
+    <t>Extremely pleasant and helpful staff.</t>
+  </si>
+  <si>
+    <t>The thing that seemed to differentiate this hotel from others was the extremely pleasant and helpful front desk staff. I arrived but my luggage did not to start my trip so the staff was very helpful in supplementing the airlines "lost luggage" kit.  Everything was very clean and the parking lot was quite secure. It was a good location for what I needed.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r67734772-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1785,54 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r35503006-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>35503006</t>
+  </si>
+  <si>
+    <t>07/22/2009</t>
+  </si>
+  <si>
+    <t>Worst Service Imaginable</t>
+  </si>
+  <si>
+    <t>My experience was a little different, as I never even made it to a room. I was visiting Houston during the 4th of July weekend when I inquired about a room just for a night. Knowing it was a busy weekend for hotels in Houston, and after calling several hotels in the area that were booked,  I was ecstatic to learn that the Comfort Inn had a room available. 
+The receptionist there was nice and very helpful, but it was the manager on duty that was a nightmare. The problem arose when my colleague wanted to pay for the room with his credit card and use my ID because he left his ID in Austin by mistake. This had not been a problem before because we stayed at the Courtyard Marriott the previous night and had no problem whatsoever. 
+It was only a problem because the manager on duty said I looked like was going to  "cause trouble" in her hotel as she threw my ID and the credit card at me and began using profanity. I had never been so insulted in my life. Maybe she was having a bad day but this woman was rude. After we both exchanged harsh words, we immediately left the establishment. 
+Thankful for us, we stayed at the Marriott again and they gave us a gift card for staying more than one night (it was a new promotion they were trying). I would...My experience was a little different, as I never even made it to a room. I was visiting Houston during the 4th of July weekend when I inquired about a room just for a night. Knowing it was a busy weekend for hotels in Houston, and after calling several hotels in the area that were booked,  I was ecstatic to learn that the Comfort Inn had a room available. The receptionist there was nice and very helpful, but it was the manager on duty that was a nightmare. The problem arose when my colleague wanted to pay for the room with his credit card and use my ID because he left his ID in Austin by mistake. This had not been a problem before because we stayed at the Courtyard Marriott the previous night and had no problem whatsoever. It was only a problem because the manager on duty said I looked like was going to  "cause trouble" in her hotel as she threw my ID and the credit card at me and began using profanity. I had never been so insulted in my life. Maybe she was having a bad day but this woman was rude. After we both exchanged harsh words, we immediately left the establishment. Thankful for us, we stayed at the Marriott again and they gave us a gift card for staying more than one night (it was a new promotion they were trying). I would definitely recommend The Marriott over Comfort Inn any day, or any hotel for that matter.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>My experience was a little different, as I never even made it to a room. I was visiting Houston during the 4th of July weekend when I inquired about a room just for a night. Knowing it was a busy weekend for hotels in Houston, and after calling several hotels in the area that were booked,  I was ecstatic to learn that the Comfort Inn had a room available. 
+The receptionist there was nice and very helpful, but it was the manager on duty that was a nightmare. The problem arose when my colleague wanted to pay for the room with his credit card and use my ID because he left his ID in Austin by mistake. This had not been a problem before because we stayed at the Courtyard Marriott the previous night and had no problem whatsoever. 
+It was only a problem because the manager on duty said I looked like was going to  "cause trouble" in her hotel as she threw my ID and the credit card at me and began using profanity. I had never been so insulted in my life. Maybe she was having a bad day but this woman was rude. After we both exchanged harsh words, we immediately left the establishment. 
+Thankful for us, we stayed at the Marriott again and they gave us a gift card for staying more than one night (it was a new promotion they were trying). I would...My experience was a little different, as I never even made it to a room. I was visiting Houston during the 4th of July weekend when I inquired about a room just for a night. Knowing it was a busy weekend for hotels in Houston, and after calling several hotels in the area that were booked,  I was ecstatic to learn that the Comfort Inn had a room available. The receptionist there was nice and very helpful, but it was the manager on duty that was a nightmare. The problem arose when my colleague wanted to pay for the room with his credit card and use my ID because he left his ID in Austin by mistake. This had not been a problem before because we stayed at the Courtyard Marriott the previous night and had no problem whatsoever. It was only a problem because the manager on duty said I looked like was going to  "cause trouble" in her hotel as she threw my ID and the credit card at me and began using profanity. I had never been so insulted in my life. Maybe she was having a bad day but this woman was rude. After we both exchanged harsh words, we immediately left the establishment. Thankful for us, we stayed at the Marriott again and they gave us a gift card for staying more than one night (it was a new promotion they were trying). I would definitely recommend The Marriott over Comfort Inn any day, or any hotel for that matter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r29855051-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>29855051</t>
+  </si>
+  <si>
+    <t>05/12/2009</t>
+  </si>
+  <si>
+    <t>I would definitely recommend this hotel to others</t>
+  </si>
+  <si>
+    <t>My colleagues and I went to Houston for a week long business trip. As I arrived at the hotel, it was in an excellent location next to the freeway. The exterior appeared to be well kept and maintained. As I entered the lobby, it was nice, open, and welcoming. The front desk was courteous and checked us in quickly. The girl recommended a restaurant nearby, which we ended up going to 3 times in the week!! The rooms looked newly remodeled and were very clean. The free wireless internet was VERY fast (a nice change from many experiences). All in all, we very much enjoyed the stay and would go back again when visiting Houston in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>My colleagues and I went to Houston for a week long business trip. As I arrived at the hotel, it was in an excellent location next to the freeway. The exterior appeared to be well kept and maintained. As I entered the lobby, it was nice, open, and welcoming. The front desk was courteous and checked us in quickly. The girl recommended a restaurant nearby, which we ended up going to 3 times in the week!! The rooms looked newly remodeled and were very clean. The free wireless internet was VERY fast (a nice change from many experiences). All in all, we very much enjoyed the stay and would go back again when visiting Houston in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r29221560-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -1204,6 +1897,42 @@
   </si>
   <si>
     <t>My stay at this hotel ended abruptly after 2 nights when I found a bed bug crawling across me.  I only found one, and did not see any other signs of an infestation.  Hotel management did not charge me for the time I had spent, and to be safe I had my luggage professionally exterminated once I returned home.  Unfortunately, this problem has put a sour taste in my mouth for value-based hotels and it's unlikely that I will stay in a Comfort Inn again.Aside from this problem, overall the hotel was fair for the price.  My room had a moisture odor, however it was bearable.  The breakfast was also a little better than your average "run of the mill" continental breakfasts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r6617290-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6617290</t>
+  </si>
+  <si>
+    <t>01/17/2007</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with great rates</t>
+  </si>
+  <si>
+    <t>I really like staying at this Comfort Inn everytime I make my way to Houston. Everything in the hotel is obviously brand new, from the lobby to the rooms and bathrooms. I highly reccommend this property to anyone staying in the Houston area. The location is central and the room rates are relatively low.</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223180-r6366014-Comfort_Inn_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6366014</t>
+  </si>
+  <si>
+    <t>12/11/2006</t>
+  </si>
+  <si>
+    <t>Love It, Love It A Lots!!!!</t>
+  </si>
+  <si>
+    <t>I think this Comfort Inn might be the best kept secret in Houston!! They recently had a major renovation at this hotel and everything from top to bottom is brand new! The breakfast is good and the service is just as nice. I've stayed all over Houston and this hotel in my opinion gives the customer the best quality for the price.  I would definately recommend this property to my friends and fellow travelers!!!!!</t>
+  </si>
+  <si>
+    <t>December 2006</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +2467,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1866,29 +2595,29 @@
         <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1904,7 +2633,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1913,49 +2642,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -1971,7 +2700,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1980,43 +2709,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -2032,7 +2761,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2041,47 +2770,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -2097,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2106,49 +2831,47 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -2164,7 +2887,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2173,49 +2896,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -2231,7 +2954,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2240,25 +2963,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2270,13 +2993,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -2292,7 +3015,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2301,34 +3024,34 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2337,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -2359,7 +3082,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2368,41 +3091,41 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>141</v>
-      </c>
-      <c r="X12" t="s">
-        <v>142</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
         <v>143</v>
       </c>
@@ -2420,7 +3143,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2429,43 +3152,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -2481,7 +3208,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2490,35 +3217,35 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2567,37 +3294,37 @@
         <v>165</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
         <v>4</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -2613,7 +3340,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2622,28 +3349,28 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2652,19 +3379,19 @@
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
@@ -2680,7 +3407,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2689,34 +3416,34 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s">
         <v>63</v>
       </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2725,13 +3452,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
@@ -2747,7 +3474,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2756,25 +3483,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2786,13 +3513,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
@@ -2808,7 +3535,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2817,43 +3544,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
         <v>63</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
@@ -2869,7 +3600,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2878,49 +3609,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
@@ -2936,7 +3661,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2945,43 +3670,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="P21" t="s"/>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="X21" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
@@ -2997,7 +3728,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3006,47 +3737,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J22" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
@@ -3062,7 +3789,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3071,25 +3798,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3101,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="X23" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
@@ -3123,7 +3850,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3132,49 +3859,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="X24" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
@@ -3190,7 +3911,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3199,33 +3920,31 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3235,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="X25" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
@@ -3257,7 +3976,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3266,43 +3985,47 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
@@ -3318,7 +4041,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3327,49 +4050,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O27" t="s">
-        <v>122</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
       <c r="R27" t="n">
         <v>4</v>
       </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="X27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
@@ -3385,7 +4108,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3394,49 +4117,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="X28" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
@@ -3452,7 +4175,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3461,49 +4184,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
       </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Y29" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
@@ -3519,7 +4242,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3528,25 +4251,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3558,13 +4281,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Y30" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
@@ -3580,7 +4303,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3589,43 +4312,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="X31" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
@@ -3641,7 +4370,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3650,49 +4379,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="J32" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s">
         <v>63</v>
       </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="X32" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
@@ -3708,7 +4431,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3717,10 +4440,10 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s">
         <v>305</v>
@@ -3729,13 +4452,13 @@
         <v>306</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3747,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="X33" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="Y33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -3769,58 +4492,52 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
         <v>311</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>312</v>
-      </c>
-      <c r="J34" t="s">
-        <v>304</v>
-      </c>
-      <c r="K34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L34" t="s">
-        <v>314</v>
-      </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="X34" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="Y34" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
@@ -3836,58 +4553,52 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s">
+        <v>315</v>
+      </c>
+      <c r="L35" t="s">
+        <v>316</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>240</v>
+      </c>
+      <c r="O35" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>294</v>
+      </c>
+      <c r="X35" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y35" t="s">
         <v>317</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
-        <v>318</v>
-      </c>
-      <c r="J35" t="s">
-        <v>319</v>
-      </c>
-      <c r="K35" t="s">
-        <v>320</v>
-      </c>
-      <c r="L35" t="s">
-        <v>321</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
-      <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s">
-        <v>322</v>
-      </c>
-      <c r="X35" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="36">
@@ -3903,7 +4614,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3912,32 +4623,38 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
@@ -3945,10 +4662,10 @@
         <v>322</v>
       </c>
       <c r="X36" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y36" t="s">
         <v>323</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="37">
@@ -3964,7 +4681,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3973,43 +4690,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>1</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>329</v>
+      </c>
+      <c r="X37" t="s">
+        <v>330</v>
+      </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
@@ -4025,58 +4742,56 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>333</v>
+      </c>
+      <c r="J38" t="s">
+        <v>334</v>
+      </c>
+      <c r="K38" t="s">
+        <v>335</v>
+      </c>
+      <c r="L38" t="s">
         <v>336</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>337</v>
-      </c>
-      <c r="J38" t="s">
-        <v>338</v>
-      </c>
-      <c r="K38" t="s">
-        <v>339</v>
-      </c>
-      <c r="L38" t="s">
-        <v>340</v>
-      </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="O38" t="s">
         <v>63</v>
       </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>337</v>
+      </c>
+      <c r="X38" t="s">
+        <v>338</v>
+      </c>
       <c r="Y38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39">
@@ -4092,47 +4807,43 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J39" t="s">
         <v>342</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>343</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>344</v>
       </c>
-      <c r="K39" t="s">
-        <v>345</v>
-      </c>
-      <c r="L39" t="s">
-        <v>346</v>
-      </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>347</v>
+        <v>240</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
       </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
         <v>4</v>
       </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4140,10 +4851,14 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>337</v>
+      </c>
+      <c r="X39" t="s">
+        <v>338</v>
+      </c>
       <c r="Y39" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
@@ -4159,54 +4874,52 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J40" t="s">
+        <v>348</v>
+      </c>
+      <c r="K40" t="s">
         <v>349</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>350</v>
       </c>
-      <c r="J40" t="s">
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
         <v>351</v>
       </c>
-      <c r="K40" t="s">
+      <c r="O40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
         <v>352</v>
       </c>
-      <c r="L40" t="s">
+      <c r="X40" t="s">
         <v>353</v>
       </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
-      <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41">
@@ -4222,7 +4935,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4231,49 +4944,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s">
-        <v>132</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>360</v>
+      </c>
+      <c r="X41" t="s">
+        <v>361</v>
+      </c>
       <c r="Y41" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
@@ -4289,7 +4996,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4298,49 +5005,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J42" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K42" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="O42" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>368</v>
+      </c>
+      <c r="X42" t="s">
+        <v>369</v>
+      </c>
       <c r="Y42" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
@@ -4356,7 +5063,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4365,49 +5072,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>376</v>
+      </c>
+      <c r="X43" t="s">
+        <v>377</v>
+      </c>
       <c r="Y43" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
@@ -4423,7 +5130,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4432,38 +5139,32 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="J44" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -4471,10 +5172,14 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>385</v>
+      </c>
+      <c r="X44" t="s">
+        <v>386</v>
+      </c>
       <c r="Y44" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
@@ -4490,7 +5195,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4499,49 +5204,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="J45" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="K45" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>394</v>
+      </c>
+      <c r="X45" t="s">
+        <v>395</v>
+      </c>
       <c r="Y45" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46">
@@ -4557,7 +5262,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4566,53 +5271,2257 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K46" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>394</v>
+      </c>
+      <c r="X46" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>404</v>
+      </c>
+      <c r="J47" t="s">
+        <v>405</v>
+      </c>
+      <c r="K47" t="s">
+        <v>406</v>
+      </c>
+      <c r="L47" t="s">
+        <v>407</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>401</v>
+      </c>
+      <c r="O47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>408</v>
+      </c>
+      <c r="X47" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>411</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>412</v>
+      </c>
+      <c r="J48" t="s">
+        <v>413</v>
+      </c>
+      <c r="K48" t="s">
+        <v>414</v>
+      </c>
+      <c r="L48" t="s">
+        <v>415</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>384</v>
+      </c>
+      <c r="O48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>416</v>
+      </c>
+      <c r="X48" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K49" t="s">
+        <v>422</v>
+      </c>
+      <c r="L49" t="s">
+        <v>423</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>424</v>
+      </c>
+      <c r="O49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>425</v>
+      </c>
+      <c r="X49" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>428</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>429</v>
+      </c>
+      <c r="J50" t="s">
+        <v>430</v>
+      </c>
+      <c r="K50" t="s">
+        <v>431</v>
+      </c>
+      <c r="L50" t="s">
+        <v>432</v>
+      </c>
+      <c r="M50" t="n">
         <v>2</v>
       </c>
-      <c r="N46" t="s">
-        <v>390</v>
-      </c>
-      <c r="O46" t="s">
-        <v>132</v>
-      </c>
-      <c r="P46" t="n">
+      <c r="N50" t="s">
+        <v>401</v>
+      </c>
+      <c r="O50" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" t="n">
         <v>2</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
         <v>3</v>
       </c>
-      <c r="R46" t="n">
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>433</v>
+      </c>
+      <c r="X50" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>436</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>437</v>
+      </c>
+      <c r="J51" t="s">
+        <v>438</v>
+      </c>
+      <c r="K51" t="s">
+        <v>439</v>
+      </c>
+      <c r="L51" t="s">
+        <v>440</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>401</v>
+      </c>
+      <c r="O51" t="s">
+        <v>83</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
         <v>3</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>441</v>
+      </c>
+      <c r="X51" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>444</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>445</v>
+      </c>
+      <c r="J52" t="s">
+        <v>446</v>
+      </c>
+      <c r="K52" t="s">
+        <v>447</v>
+      </c>
+      <c r="L52" t="s">
+        <v>448</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>424</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>449</v>
+      </c>
+      <c r="X52" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>452</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>453</v>
+      </c>
+      <c r="J53" t="s">
+        <v>454</v>
+      </c>
+      <c r="K53" t="s">
+        <v>455</v>
+      </c>
+      <c r="L53" t="s">
+        <v>456</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s">
+        <v>83</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>457</v>
+      </c>
+      <c r="X53" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>460</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>461</v>
+      </c>
+      <c r="J54" t="s">
+        <v>462</v>
+      </c>
+      <c r="K54" t="s">
+        <v>463</v>
+      </c>
+      <c r="L54" t="s">
+        <v>464</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>457</v>
+      </c>
+      <c r="X54" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>466</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>467</v>
+      </c>
+      <c r="J55" t="s">
+        <v>468</v>
+      </c>
+      <c r="K55" t="s">
+        <v>469</v>
+      </c>
+      <c r="L55" t="s">
+        <v>470</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>471</v>
+      </c>
+      <c r="O55" t="s">
+        <v>145</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>472</v>
+      </c>
+      <c r="X55" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>475</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>476</v>
+      </c>
+      <c r="J56" t="s">
+        <v>477</v>
+      </c>
+      <c r="K56" t="s">
+        <v>478</v>
+      </c>
+      <c r="L56" t="s">
+        <v>479</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>471</v>
+      </c>
+      <c r="O56" t="s">
+        <v>83</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>472</v>
+      </c>
+      <c r="X56" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>481</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>482</v>
+      </c>
+      <c r="J57" t="s">
+        <v>483</v>
+      </c>
+      <c r="K57" t="s">
+        <v>484</v>
+      </c>
+      <c r="L57" t="s">
+        <v>485</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>486</v>
+      </c>
+      <c r="O57" t="s">
+        <v>83</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>487</v>
+      </c>
+      <c r="X57" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>490</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>491</v>
+      </c>
+      <c r="J58" t="s">
+        <v>483</v>
+      </c>
+      <c r="K58" t="s">
+        <v>492</v>
+      </c>
+      <c r="L58" t="s">
+        <v>493</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>494</v>
+      </c>
+      <c r="O58" t="s">
+        <v>83</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>487</v>
+      </c>
+      <c r="X58" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>496</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>497</v>
+      </c>
+      <c r="J59" t="s">
+        <v>483</v>
+      </c>
+      <c r="K59" t="s">
+        <v>498</v>
+      </c>
+      <c r="L59" t="s">
+        <v>499</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>500</v>
+      </c>
+      <c r="O59" t="s">
+        <v>83</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>487</v>
+      </c>
+      <c r="X59" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>503</v>
+      </c>
+      <c r="J60" t="s">
+        <v>504</v>
+      </c>
+      <c r="K60" t="s">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s">
+        <v>506</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>508</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>509</v>
+      </c>
+      <c r="J61" t="s">
+        <v>510</v>
+      </c>
+      <c r="K61" t="s">
+        <v>511</v>
+      </c>
+      <c r="L61" t="s">
+        <v>512</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>513</v>
+      </c>
+      <c r="X61" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>516</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>517</v>
+      </c>
+      <c r="J62" t="s">
+        <v>510</v>
+      </c>
+      <c r="K62" t="s">
+        <v>518</v>
+      </c>
+      <c r="L62" t="s">
+        <v>519</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>471</v>
+      </c>
+      <c r="O62" t="s">
+        <v>83</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>513</v>
+      </c>
+      <c r="X62" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>521</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>522</v>
+      </c>
+      <c r="J63" t="s">
+        <v>523</v>
+      </c>
+      <c r="K63" t="s">
+        <v>524</v>
+      </c>
+      <c r="L63" t="s">
+        <v>525</v>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
-      <c r="T46" t="s"/>
-      <c r="U46" t="n">
+      <c r="N63" t="s">
+        <v>526</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
         <v>3</v>
       </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="s">
-        <v>391</v>
-      </c>
-      <c r="X46" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>393</v>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>527</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>528</v>
+      </c>
+      <c r="J64" t="s">
+        <v>529</v>
+      </c>
+      <c r="K64" t="s">
+        <v>530</v>
+      </c>
+      <c r="L64" t="s">
+        <v>531</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>532</v>
+      </c>
+      <c r="O64" t="s">
+        <v>83</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>533</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>534</v>
+      </c>
+      <c r="J65" t="s">
+        <v>535</v>
+      </c>
+      <c r="K65" t="s">
+        <v>536</v>
+      </c>
+      <c r="L65" t="s">
+        <v>537</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>532</v>
+      </c>
+      <c r="O65" t="s">
+        <v>83</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>538</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>539</v>
+      </c>
+      <c r="J66" t="s">
+        <v>540</v>
+      </c>
+      <c r="K66" t="s">
+        <v>541</v>
+      </c>
+      <c r="L66" t="s">
+        <v>542</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>543</v>
+      </c>
+      <c r="O66" t="s">
+        <v>83</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>544</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>545</v>
+      </c>
+      <c r="J67" t="s">
+        <v>546</v>
+      </c>
+      <c r="K67" t="s">
+        <v>547</v>
+      </c>
+      <c r="L67" t="s">
+        <v>548</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>549</v>
+      </c>
+      <c r="O67" t="s">
+        <v>83</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>551</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>552</v>
+      </c>
+      <c r="J68" t="s">
+        <v>553</v>
+      </c>
+      <c r="K68" t="s">
+        <v>554</v>
+      </c>
+      <c r="L68" t="s">
+        <v>555</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>556</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>557</v>
+      </c>
+      <c r="J69" t="s">
+        <v>558</v>
+      </c>
+      <c r="K69" t="s">
+        <v>559</v>
+      </c>
+      <c r="L69" t="s">
+        <v>560</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>561</v>
+      </c>
+      <c r="O69" t="s">
+        <v>83</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>563</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>564</v>
+      </c>
+      <c r="J70" t="s">
+        <v>565</v>
+      </c>
+      <c r="K70" t="s">
+        <v>566</v>
+      </c>
+      <c r="L70" t="s">
+        <v>567</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>568</v>
+      </c>
+      <c r="O70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>569</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>570</v>
+      </c>
+      <c r="J71" t="s">
+        <v>571</v>
+      </c>
+      <c r="K71" t="s">
+        <v>572</v>
+      </c>
+      <c r="L71" t="s">
+        <v>573</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>574</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>575</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>576</v>
+      </c>
+      <c r="J72" t="s">
+        <v>577</v>
+      </c>
+      <c r="K72" t="s">
+        <v>578</v>
+      </c>
+      <c r="L72" t="s">
+        <v>579</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>580</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>581</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>582</v>
+      </c>
+      <c r="J73" t="s">
+        <v>583</v>
+      </c>
+      <c r="K73" t="s">
+        <v>584</v>
+      </c>
+      <c r="L73" t="s">
+        <v>585</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>586</v>
+      </c>
+      <c r="O73" t="s">
+        <v>145</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>587</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>588</v>
+      </c>
+      <c r="J74" t="s">
+        <v>589</v>
+      </c>
+      <c r="K74" t="s">
+        <v>590</v>
+      </c>
+      <c r="L74" t="s">
+        <v>591</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>592</v>
+      </c>
+      <c r="O74" t="s">
+        <v>83</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>594</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>595</v>
+      </c>
+      <c r="J75" t="s">
+        <v>596</v>
+      </c>
+      <c r="K75" t="s">
+        <v>597</v>
+      </c>
+      <c r="L75" t="s">
+        <v>598</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>599</v>
+      </c>
+      <c r="O75" t="s">
+        <v>83</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>601</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>602</v>
+      </c>
+      <c r="J76" t="s">
+        <v>603</v>
+      </c>
+      <c r="K76" t="s">
+        <v>604</v>
+      </c>
+      <c r="L76" t="s">
+        <v>605</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>606</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>607</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>608</v>
+      </c>
+      <c r="J77" t="s">
+        <v>609</v>
+      </c>
+      <c r="K77" t="s">
+        <v>610</v>
+      </c>
+      <c r="L77" t="s">
+        <v>611</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>612</v>
+      </c>
+      <c r="O77" t="s">
+        <v>83</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>614</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>615</v>
+      </c>
+      <c r="J78" t="s">
+        <v>616</v>
+      </c>
+      <c r="K78" t="s">
+        <v>617</v>
+      </c>
+      <c r="L78" t="s">
+        <v>618</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>619</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>620</v>
+      </c>
+      <c r="X78" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>623</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>624</v>
+      </c>
+      <c r="J79" t="s">
+        <v>625</v>
+      </c>
+      <c r="K79" t="s">
+        <v>626</v>
+      </c>
+      <c r="L79" t="s">
+        <v>627</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>628</v>
+      </c>
+      <c r="O79" t="s">
+        <v>83</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>629</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>630</v>
+      </c>
+      <c r="J80" t="s">
+        <v>631</v>
+      </c>
+      <c r="K80" t="s">
+        <v>632</v>
+      </c>
+      <c r="L80" t="s">
+        <v>633</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>634</v>
+      </c>
+      <c r="O80" t="s">
+        <v>83</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
